--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_16_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_16_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283114.1258283753</v>
+        <v>282376.6700834671</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1603585.310072796</v>
+        <v>1603585.310072794</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681861</v>
+        <v>590120.9651681855</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5317519273724</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>244.80043761492</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.4200746905758</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.9333776912649</v>
       </c>
       <c r="F11" t="n">
-        <v>114.603004669632</v>
+        <v>5.093546879471833</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.5659854238274</v>
       </c>
       <c r="I11" t="n">
-        <v>62.73708397410563</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.67991187231661</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.475174600375</v>
+        <v>98.47517460037501</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2509758123363</v>
+        <v>129.2509758123364</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3485634584967</v>
+        <v>206.3485634584968</v>
       </c>
       <c r="W11" t="n">
         <v>228.345458936532</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.6769410671468</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.5024136872132</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.18746754632221</v>
+        <v>43.18746754632222</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>48.84092586337839</v>
       </c>
       <c r="D12" t="n">
-        <v>23.92776551062295</v>
+        <v>23.92776551062296</v>
       </c>
       <c r="E12" t="n">
-        <v>33.84877564315121</v>
+        <v>33.84877564315123</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>21.32157401952669</v>
       </c>
       <c r="G12" t="n">
-        <v>13.55678493040438</v>
+        <v>13.5567849304044</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7412374617164</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.80234783683004</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.20069628095735</v>
       </c>
       <c r="S12" t="n">
-        <v>163.7279115505747</v>
+        <v>123.7744471039476</v>
       </c>
       <c r="T12" t="n">
-        <v>81.37049646353258</v>
+        <v>197.2468123181131</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4539816866908</v>
+        <v>224.6386397507134</v>
       </c>
       <c r="V12" t="n">
         <v>109.7240729756325</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.89903342666119</v>
+        <v>57.89903342666121</v>
       </c>
       <c r="C13" t="n">
-        <v>45.15189486717972</v>
+        <v>45.15189486717973</v>
       </c>
       <c r="D13" t="n">
-        <v>26.82090845049674</v>
+        <v>26.82090845049676</v>
       </c>
       <c r="E13" t="n">
-        <v>24.78996610917656</v>
+        <v>24.78996610917658</v>
       </c>
       <c r="F13" t="n">
-        <v>23.97436334578188</v>
+        <v>23.9743633457819</v>
       </c>
       <c r="G13" t="n">
-        <v>45.46870670187962</v>
+        <v>45.46870670187964</v>
       </c>
       <c r="H13" t="n">
         <v>37.34916637586421</v>
@@ -1576,7 +1576,7 @@
         <v>40.58499218610486</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05600596301286</v>
+        <v>96.05600596301288</v>
       </c>
       <c r="T13" t="n">
         <v>105.1384864986056</v>
@@ -1585,16 +1585,16 @@
         <v>163.8547273726304</v>
       </c>
       <c r="V13" t="n">
-        <v>130.7516930029165</v>
+        <v>130.7516930029166</v>
       </c>
       <c r="W13" t="n">
         <v>163.9079188233929</v>
       </c>
       <c r="X13" t="n">
-        <v>103.9557018682866</v>
+        <v>103.9557018682867</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.5640158037456</v>
+        <v>96.56401580374562</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>261.5317519273724</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.4200746905758</v>
       </c>
       <c r="E14" t="n">
-        <v>260.9333776912648</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>285.1092054165182</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1434860874901</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>210.5659854238274</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>60.90949391953492</v>
+        <v>62.73708397410562</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>71.67991187231661</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.475174600375</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.3485634584967</v>
+        <v>145.3913624516556</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.345458936532</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>43.18746754632221</v>
       </c>
       <c r="C15" t="n">
         <v>48.84092586337837</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>23.92776551062295</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -1704,7 +1704,7 @@
         <v>107.7412374617164</v>
       </c>
       <c r="I15" t="n">
-        <v>76.80234783683004</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>6.308342209443892</v>
       </c>
       <c r="S15" t="n">
-        <v>41.54325348655205</v>
+        <v>163.7279115505747</v>
       </c>
       <c r="T15" t="n">
-        <v>126.7528066907251</v>
+        <v>75.06215425409043</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4539816866908</v>
+        <v>224.6386397507134</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>127.8046886859774</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -1777,13 +1777,13 @@
         <v>23.97436334578188</v>
       </c>
       <c r="G16" t="n">
-        <v>45.46870670187963</v>
+        <v>45.46870670187962</v>
       </c>
       <c r="H16" t="n">
-        <v>37.3491663758642</v>
+        <v>37.34916637586421</v>
       </c>
       <c r="I16" t="n">
-        <v>24.46998386799117</v>
+        <v>24.46998386799116</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58499218610487</v>
+        <v>40.58499218610486</v>
       </c>
       <c r="S16" t="n">
         <v>96.05600596301286</v>
@@ -1847,7 +1847,7 @@
         <v>143.7778051647094</v>
       </c>
       <c r="D17" t="n">
-        <v>133.3974422403651</v>
+        <v>133.3974422403652</v>
       </c>
       <c r="E17" t="n">
         <v>159.9107452410542</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.22834336212572</v>
+        <v>28.22834336212575</v>
       </c>
       <c r="V17" t="n">
-        <v>103.1612861537822</v>
+        <v>105.3259310082861</v>
       </c>
       <c r="W17" t="n">
-        <v>127.3228264863213</v>
+        <v>125.1581816318188</v>
       </c>
       <c r="X17" t="n">
-        <v>147.6543086169361</v>
+        <v>147.6543086169362</v>
       </c>
       <c r="Y17" t="n">
         <v>163.4797812370026</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.73545231673921</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>61.60668847409504</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
@@ -1935,13 +1935,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.741442994427</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.80234783683004</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.20069628095735</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.7279115505747</v>
       </c>
       <c r="T18" t="n">
         <v>197.2468123181131</v>
@@ -1980,10 +1980,10 @@
         <v>224.6386397507134</v>
       </c>
       <c r="V18" t="n">
-        <v>8.701440525421873</v>
+        <v>8.701440525421901</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>26.78205623576682</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>162.7696502501275</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.115854048394959</v>
+        <v>37.05173299624133</v>
       </c>
       <c r="U19" t="n">
-        <v>62.83209492241973</v>
+        <v>62.83209492241976</v>
       </c>
       <c r="V19" t="n">
-        <v>29.7290605527059</v>
+        <v>29.72906055270593</v>
       </c>
       <c r="W19" t="n">
-        <v>62.88528637318228</v>
+        <v>62.88528637318231</v>
       </c>
       <c r="X19" t="n">
-        <v>2.933069418076002</v>
+        <v>2.93306941807603</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.7055291979739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>143.7778051647094</v>
       </c>
       <c r="D20" t="n">
-        <v>131.2327973858629</v>
+        <v>133.3974422403652</v>
       </c>
       <c r="E20" t="n">
         <v>159.9107452410542</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.22834336212572</v>
+        <v>28.22834336212575</v>
       </c>
       <c r="V20" t="n">
-        <v>105.3259310082861</v>
+        <v>103.1612861537838</v>
       </c>
       <c r="W20" t="n">
-        <v>127.3228264863213</v>
+        <v>127.3228264863214</v>
       </c>
       <c r="X20" t="n">
-        <v>147.6543086169361</v>
+        <v>147.6543086169362</v>
       </c>
       <c r="Y20" t="n">
         <v>163.4797812370026</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>140.9592458946526</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7412374617164</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.80234783683004</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7279115505747</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2468123181131</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>102.7926501797111</v>
+        <v>224.6386397507134</v>
       </c>
       <c r="V21" t="n">
-        <v>8.701440525421873</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4.115854048394959</v>
+        <v>4.115854048394987</v>
       </c>
       <c r="U22" t="n">
-        <v>62.83209492241973</v>
+        <v>62.83209492241976</v>
       </c>
       <c r="V22" t="n">
-        <v>225.4345897506798</v>
+        <v>29.72906055270593</v>
       </c>
       <c r="W22" t="n">
-        <v>62.88528637318228</v>
+        <v>258.5908155711561</v>
       </c>
       <c r="X22" t="n">
-        <v>2.933069418076002</v>
+        <v>2.93306941807603</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>143.7778051647094</v>
       </c>
       <c r="D23" t="n">
-        <v>133.3974422403651</v>
+        <v>133.3974422403652</v>
       </c>
       <c r="E23" t="n">
         <v>159.9107452410542</v>
@@ -2330,7 +2330,7 @@
         <v>184.0865729663076</v>
       </c>
       <c r="G23" t="n">
-        <v>191.1208536372795</v>
+        <v>191.1208536372796</v>
       </c>
       <c r="H23" t="n">
         <v>109.5433529736168</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>28.22834336212571</v>
+        <v>28.22834336212574</v>
       </c>
       <c r="V23" t="n">
         <v>105.3259310082861</v>
       </c>
       <c r="W23" t="n">
-        <v>127.3228264863213</v>
+        <v>127.3228264863214</v>
       </c>
       <c r="X23" t="n">
-        <v>147.6543086169361</v>
+        <v>147.6543086169362</v>
       </c>
       <c r="Y23" t="n">
         <v>163.4797812370026</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>93.33431189814247</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7279115505747</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>197.2468123181131</v>
@@ -2454,16 +2454,16 @@
         <v>224.6386397507134</v>
       </c>
       <c r="V24" t="n">
-        <v>8.701440525421873</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>26.78205623576679</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>203.2059549977306</v>
       </c>
     </row>
     <row r="25">
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.115854048394959</v>
+        <v>4.115854048394987</v>
       </c>
       <c r="U25" t="n">
-        <v>258.5376241203936</v>
+        <v>62.83209492241976</v>
       </c>
       <c r="V25" t="n">
-        <v>29.7290605527059</v>
+        <v>29.72906055270593</v>
       </c>
       <c r="W25" t="n">
-        <v>62.88528637318228</v>
+        <v>62.88528637318231</v>
       </c>
       <c r="X25" t="n">
-        <v>2.933069418076002</v>
+        <v>2.93306941807603</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>195.7055291979739</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>241.6336360699455</v>
       </c>
       <c r="C26" t="n">
-        <v>224.902321757493</v>
+        <v>224.9023217574931</v>
       </c>
       <c r="D26" t="n">
-        <v>214.5219588331488</v>
+        <v>214.5219588331489</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0352618338379</v>
+        <v>241.0352618338358</v>
       </c>
       <c r="F26" t="n">
-        <v>265.2110895590912</v>
+        <v>265.2110895590913</v>
       </c>
       <c r="G26" t="n">
-        <v>272.2453702300632</v>
+        <v>272.2453702300633</v>
       </c>
       <c r="H26" t="n">
-        <v>190.6678695664005</v>
+        <v>190.6678695664006</v>
       </c>
       <c r="I26" t="n">
-        <v>42.83896811667866</v>
+        <v>42.83896811667873</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.78179601488963</v>
+        <v>51.78179601488971</v>
       </c>
       <c r="T26" t="n">
-        <v>78.57705874294803</v>
+        <v>78.57705874294811</v>
       </c>
       <c r="U26" t="n">
-        <v>109.3528599549094</v>
+        <v>109.3528599549095</v>
       </c>
       <c r="V26" t="n">
         <v>186.4504476010698</v>
       </c>
       <c r="W26" t="n">
-        <v>208.447343079105</v>
+        <v>208.4473430791051</v>
       </c>
       <c r="X26" t="n">
-        <v>228.7788252097198</v>
+        <v>228.7788252097199</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.6042978297862</v>
+        <v>244.6042978297863</v>
       </c>
     </row>
     <row r="27">
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>139.5346273124188</v>
       </c>
       <c r="C27" t="n">
-        <v>45.96447152925003</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>13.95065978572424</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>1.423458162099706</v>
+        <v>1.423458162099791</v>
       </c>
       <c r="G27" t="n">
         <v>135.741442994427</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7412374617164</v>
       </c>
       <c r="I27" t="n">
         <v>76.80234783683004</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.20069628095735</v>
       </c>
       <c r="S27" t="n">
         <v>163.7279115505747</v>
       </c>
       <c r="T27" t="n">
-        <v>197.2468123181131</v>
+        <v>55.16403839666355</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6386397507134</v>
+        <v>82.55586582926387</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>89.82595711820562</v>
       </c>
       <c r="W27" t="n">
         <v>249.98934675</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.00091756923422</v>
+        <v>38.0009175692343</v>
       </c>
       <c r="C28" t="n">
-        <v>25.25377900975275</v>
+        <v>25.25377900975283</v>
       </c>
       <c r="D28" t="n">
-        <v>6.922792593069772</v>
+        <v>6.922792593069858</v>
       </c>
       <c r="E28" t="n">
-        <v>4.891850251749588</v>
+        <v>4.891850251749673</v>
       </c>
       <c r="F28" t="n">
-        <v>4.076247488354909</v>
+        <v>4.076247488354994</v>
       </c>
       <c r="G28" t="n">
-        <v>25.57059084445265</v>
+        <v>25.57059084445273</v>
       </c>
       <c r="H28" t="n">
-        <v>17.45105051843723</v>
+        <v>17.45105051843732</v>
       </c>
       <c r="I28" t="n">
-        <v>4.57186801056419</v>
+        <v>4.571868010564273</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.68687632867788</v>
+        <v>20.68687632867797</v>
       </c>
       <c r="S28" t="n">
-        <v>76.15789010558589</v>
+        <v>76.15789010558598</v>
       </c>
       <c r="T28" t="n">
-        <v>85.24037064117863</v>
+        <v>85.24037064117871</v>
       </c>
       <c r="U28" t="n">
-        <v>143.9566115152034</v>
+        <v>143.9566115152035</v>
       </c>
       <c r="V28" t="n">
-        <v>110.8535771454896</v>
+        <v>110.8535771454897</v>
       </c>
       <c r="W28" t="n">
-        <v>144.0098029659659</v>
+        <v>144.009802965966</v>
       </c>
       <c r="X28" t="n">
-        <v>84.05758601085967</v>
+        <v>84.05758601085975</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.66589994631863</v>
+        <v>76.66589994631872</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>190.6678695664005</v>
       </c>
       <c r="I29" t="n">
-        <v>42.83896811667867</v>
+        <v>42.83896811667868</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2871,13 +2871,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>28.94281000595143</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>13.95065978572427</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.80234783683004</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.20069628095735</v>
       </c>
       <c r="S30" t="n">
-        <v>21.64513762912511</v>
+        <v>163.7279115505747</v>
       </c>
       <c r="T30" t="n">
-        <v>148.9880477567923</v>
+        <v>55.16403839666349</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6386397507134</v>
+        <v>82.55586582926381</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>189.810311992341</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -2968,7 +2968,7 @@
         <v>17.45105051843726</v>
       </c>
       <c r="I31" t="n">
-        <v>4.571868010564218</v>
+        <v>4.571868010564216</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>241.6336360699455</v>
       </c>
       <c r="C32" t="n">
-        <v>224.9023217574931</v>
+        <v>224.902321757493</v>
       </c>
       <c r="D32" t="n">
         <v>214.5219588331488</v>
@@ -3038,16 +3038,16 @@
         <v>241.0352618338379</v>
       </c>
       <c r="F32" t="n">
-        <v>265.2110895590913</v>
+        <v>265.2110895590912</v>
       </c>
       <c r="G32" t="n">
-        <v>272.2453702300633</v>
+        <v>272.2453702300632</v>
       </c>
       <c r="H32" t="n">
         <v>190.6678695664005</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83896811667869</v>
+        <v>42.83896811667865</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.78179601488966</v>
+        <v>51.78179601488963</v>
       </c>
       <c r="T32" t="n">
-        <v>78.57705874294805</v>
+        <v>78.57705874294803</v>
       </c>
       <c r="U32" t="n">
         <v>109.3528599549094</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>23.28935168889524</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -3117,13 +3117,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>1.423458162099735</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>135.741442994427</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>16.62331307917141</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.20069628095735</v>
       </c>
       <c r="S33" t="n">
-        <v>21.64513762912511</v>
+        <v>21.64513762912508</v>
       </c>
       <c r="T33" t="n">
-        <v>197.2468123181131</v>
+        <v>55.16403839666346</v>
       </c>
       <c r="U33" t="n">
         <v>224.6386397507134</v>
       </c>
       <c r="V33" t="n">
-        <v>183.6499664783344</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.00091756923425</v>
+        <v>38.00091756923422</v>
       </c>
       <c r="C34" t="n">
-        <v>25.25377900975278</v>
+        <v>25.25377900975275</v>
       </c>
       <c r="D34" t="n">
-        <v>6.922792593069801</v>
+        <v>6.922792593069772</v>
       </c>
       <c r="E34" t="n">
-        <v>4.891850251749617</v>
+        <v>4.891850251749588</v>
       </c>
       <c r="F34" t="n">
-        <v>4.076247488354937</v>
+        <v>4.076247488354909</v>
       </c>
       <c r="G34" t="n">
-        <v>25.57059084445267</v>
+        <v>25.57059084445265</v>
       </c>
       <c r="H34" t="n">
-        <v>17.45105051843726</v>
+        <v>17.45105051843723</v>
       </c>
       <c r="I34" t="n">
-        <v>4.571868010564218</v>
+        <v>4.571868010564188</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.68687632867791</v>
+        <v>20.68687632867788</v>
       </c>
       <c r="S34" t="n">
-        <v>76.15789010558592</v>
+        <v>76.15789010558589</v>
       </c>
       <c r="T34" t="n">
-        <v>85.24037064117866</v>
+        <v>85.24037064117863</v>
       </c>
       <c r="U34" t="n">
         <v>143.9566115152034</v>
@@ -3247,13 +3247,13 @@
         <v>110.8535771454896</v>
       </c>
       <c r="W34" t="n">
-        <v>144.009802965966</v>
+        <v>144.0098029659659</v>
       </c>
       <c r="X34" t="n">
-        <v>84.05758601085969</v>
+        <v>84.05758601085967</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.66589994631866</v>
+        <v>76.66589994631863</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160.5091194771617</v>
+        <v>160.5091194771618</v>
       </c>
       <c r="C35" t="n">
-        <v>143.7778051647093</v>
+        <v>143.7778051647094</v>
       </c>
       <c r="D35" t="n">
         <v>133.3974422403651</v>
       </c>
       <c r="E35" t="n">
-        <v>159.9107452410541</v>
+        <v>159.9107452410542</v>
       </c>
       <c r="F35" t="n">
-        <v>184.0865729663075</v>
+        <v>184.0865729663076</v>
       </c>
       <c r="G35" t="n">
         <v>191.1208536372795</v>
       </c>
       <c r="H35" t="n">
-        <v>109.5433529736167</v>
+        <v>109.5433529736168</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.22834336212563</v>
+        <v>28.22834336212571</v>
       </c>
       <c r="V35" t="n">
-        <v>105.325931008286</v>
+        <v>105.3259310082861</v>
       </c>
       <c r="W35" t="n">
-        <v>127.3228264863212</v>
+        <v>127.3228264863213</v>
       </c>
       <c r="X35" t="n">
-        <v>147.654308616936</v>
+        <v>147.6543086169361</v>
       </c>
       <c r="Y35" t="n">
-        <v>163.4797812370025</v>
+        <v>163.4797812370026</v>
       </c>
     </row>
     <row r="36">
@@ -3345,25 +3345,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>66.57266073035689</v>
       </c>
       <c r="H36" t="n">
         <v>107.7412374617164</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.80234783683004</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.2468123181131</v>
       </c>
       <c r="U36" t="n">
         <v>224.6386397507134</v>
@@ -3405,13 +3405,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>26.78205623576679</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>189.9654084352343</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>48.73090502477481</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.115854048394874</v>
+        <v>4.115854048394959</v>
       </c>
       <c r="U37" t="n">
-        <v>62.83209492241965</v>
+        <v>62.83209492241973</v>
       </c>
       <c r="V37" t="n">
-        <v>29.72906055270582</v>
+        <v>29.7290605527059</v>
       </c>
       <c r="W37" t="n">
-        <v>62.8852863731822</v>
+        <v>62.88528637318228</v>
       </c>
       <c r="X37" t="n">
-        <v>31.3020456848479</v>
+        <v>2.933069418076002</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>150.9184190695285</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>33.56241383172614</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
         <v>143.5062320835493</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.80234783683004</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.20069628095735</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>46.69996268345454</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>2.933069418076002</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>195.705529197974</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>186.6340308161432</v>
       </c>
       <c r="G41" t="n">
-        <v>193.6683114871151</v>
+        <v>193.6683114871152</v>
       </c>
       <c r="H41" t="n">
         <v>112.0908108234524</v>
@@ -3828,16 +3828,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7412374617164</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.80234783683004</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.2468123181131</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6386397507134</v>
+        <v>3.978807086315755</v>
       </c>
       <c r="V42" t="n">
-        <v>20.1160101783017</v>
+        <v>11.24889837525751</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>194.9139303529174</v>
       </c>
     </row>
     <row r="43">
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>33.96267343427632</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>20.19858969866829</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>162.7696502501275</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>163.0565773269974</v>
+        <v>163.0565773269975</v>
       </c>
       <c r="C44" t="n">
-        <v>146.325263014545</v>
+        <v>146.3252630145451</v>
       </c>
       <c r="D44" t="n">
-        <v>135.9449000902007</v>
+        <v>135.9449000902008</v>
       </c>
       <c r="E44" t="n">
-        <v>162.4582030908898</v>
+        <v>162.4582030908899</v>
       </c>
       <c r="F44" t="n">
-        <v>186.6340308161432</v>
+        <v>186.6340308161433</v>
       </c>
       <c r="G44" t="n">
-        <v>193.6683114871151</v>
+        <v>193.6683114871152</v>
       </c>
       <c r="H44" t="n">
-        <v>112.0908108234524</v>
+        <v>112.0908108234525</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.77580121196133</v>
+        <v>30.77580121196141</v>
       </c>
       <c r="V44" t="n">
-        <v>107.8733888581217</v>
+        <v>107.8733888581218</v>
       </c>
       <c r="W44" t="n">
-        <v>129.8702843361569</v>
+        <v>129.870284336157</v>
       </c>
       <c r="X44" t="n">
-        <v>150.2017664667717</v>
+        <v>150.2017664667718</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.0272390868382</v>
+        <v>166.0272390868383</v>
       </c>
     </row>
     <row r="45">
@@ -4056,10 +4056,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7412374617164</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.80234783683004</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,22 +4104,22 @@
         <v>77.20069628095735</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7279115505747</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6386397507134</v>
+        <v>117.8738935488993</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>11.24889837525757</v>
       </c>
       <c r="W45" t="n">
-        <v>172.7552315929924</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>110.8304434303686</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>72.13779651842681</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.663311898230568</v>
+        <v>6.663311898230654</v>
       </c>
       <c r="U46" t="n">
-        <v>65.37955277225534</v>
+        <v>65.37955277225542</v>
       </c>
       <c r="V46" t="n">
-        <v>215.2447583513375</v>
+        <v>32.2765184025416</v>
       </c>
       <c r="W46" t="n">
-        <v>65.43274422301789</v>
+        <v>65.43274422301798</v>
       </c>
       <c r="X46" t="n">
-        <v>5.480527267911611</v>
+        <v>5.480527267911697</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>697.2513272329229</v>
+        <v>515.4657808140651</v>
       </c>
       <c r="C11" t="n">
-        <v>449.9781579249229</v>
+        <v>515.4657808140651</v>
       </c>
       <c r="D11" t="n">
-        <v>213.1902036920183</v>
+        <v>515.4657808140651</v>
       </c>
       <c r="E11" t="n">
-        <v>213.1902036920183</v>
+        <v>251.8967124390501</v>
       </c>
       <c r="F11" t="n">
-        <v>97.4295929146122</v>
+        <v>246.751715591099</v>
       </c>
       <c r="G11" t="n">
-        <v>97.4295929146122</v>
+        <v>246.751715591099</v>
       </c>
       <c r="H11" t="n">
-        <v>97.4295929146122</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="I11" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J11" t="n">
-        <v>77.65547396715827</v>
+        <v>75.46896401311562</v>
       </c>
       <c r="K11" t="n">
-        <v>265.2721781725822</v>
+        <v>263.0856682185396</v>
       </c>
       <c r="L11" t="n">
-        <v>549.9963680663914</v>
+        <v>547.8098581123488</v>
       </c>
       <c r="M11" t="n">
-        <v>882.0191836593863</v>
+        <v>879.8326737053437</v>
       </c>
       <c r="N11" t="n">
-        <v>1201.710790581529</v>
+        <v>1201.71079058153</v>
       </c>
       <c r="O11" t="n">
-        <v>1459.522817596124</v>
+        <v>1459.522817596126</v>
       </c>
       <c r="P11" t="n">
-        <v>1642.620624793026</v>
+        <v>1642.620624793027</v>
       </c>
       <c r="Q11" t="n">
-        <v>1702.940051078811</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="R11" t="n">
-        <v>1702.940051078811</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="S11" t="n">
-        <v>1630.536099692632</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="T11" t="n">
-        <v>1531.06622635892</v>
+        <v>1603.470177745101</v>
       </c>
       <c r="U11" t="n">
-        <v>1400.509685134338</v>
+        <v>1472.913636520519</v>
       </c>
       <c r="V11" t="n">
-        <v>1192.076792752018</v>
+        <v>1264.480744138199</v>
       </c>
       <c r="W11" t="n">
-        <v>961.4248140282486</v>
+        <v>1033.828765414429</v>
       </c>
       <c r="X11" t="n">
-        <v>961.4248140282486</v>
+        <v>782.6399360536744</v>
       </c>
       <c r="Y11" t="n">
-        <v>961.4248140282486</v>
+        <v>515.4657808140651</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>532.6511036042482</v>
+        <v>254.5620068841154</v>
       </c>
       <c r="C12" t="n">
-        <v>359.8979885260654</v>
+        <v>205.2277383352483</v>
       </c>
       <c r="D12" t="n">
-        <v>335.728528414325</v>
+        <v>181.058278223508</v>
       </c>
       <c r="E12" t="n">
-        <v>301.5378459464955</v>
+        <v>146.8675957556784</v>
       </c>
       <c r="F12" t="n">
-        <v>156.5820559631123</v>
+        <v>125.3306523016111</v>
       </c>
       <c r="G12" t="n">
-        <v>142.8883338111887</v>
+        <v>111.6369301496874</v>
       </c>
       <c r="H12" t="n">
-        <v>34.05880102157622</v>
+        <v>111.6369301496874</v>
       </c>
       <c r="I12" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J12" t="n">
-        <v>67.80672594273673</v>
+        <v>67.80672594273678</v>
       </c>
       <c r="K12" t="n">
-        <v>67.80672594273673</v>
+        <v>252.0929181556778</v>
       </c>
       <c r="L12" t="n">
-        <v>376.4518606649025</v>
+        <v>252.0929181556778</v>
       </c>
       <c r="M12" t="n">
-        <v>789.4263691098794</v>
+        <v>665.0674266006547</v>
       </c>
       <c r="N12" t="n">
-        <v>1116.85364374404</v>
+        <v>1000.067811829626</v>
       </c>
       <c r="O12" t="n">
-        <v>1451.102454017444</v>
+        <v>1334.31662210303</v>
       </c>
       <c r="P12" t="n">
-        <v>1702.940051078811</v>
+        <v>1586.154219164397</v>
       </c>
       <c r="Q12" t="n">
-        <v>1702.940051078811</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="R12" t="n">
-        <v>1702.940051078811</v>
+        <v>1624.959549784916</v>
       </c>
       <c r="S12" t="n">
-        <v>1537.558322239847</v>
+        <v>1499.934855740525</v>
       </c>
       <c r="T12" t="n">
-        <v>1455.365901569612</v>
+        <v>1300.695651378795</v>
       </c>
       <c r="U12" t="n">
-        <v>1351.877031179015</v>
+        <v>1073.787934458882</v>
       </c>
       <c r="V12" t="n">
-        <v>1241.044634233932</v>
+        <v>962.9555375137987</v>
       </c>
       <c r="W12" t="n">
-        <v>988.5301425672649</v>
+        <v>710.441045847132</v>
       </c>
       <c r="X12" t="n">
-        <v>782.0032439728424</v>
+        <v>503.9141472527095</v>
       </c>
       <c r="Y12" t="n">
-        <v>576.2748081964928</v>
+        <v>298.18571147636</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.3870734643741</v>
+        <v>264.387073464374</v>
       </c>
       <c r="C13" t="n">
-        <v>218.7790988510612</v>
+        <v>218.7790988510611</v>
       </c>
       <c r="D13" t="n">
-        <v>191.6872721333878</v>
+        <v>191.6872721333877</v>
       </c>
       <c r="E13" t="n">
-        <v>166.6469023261387</v>
+        <v>166.6469023261386</v>
       </c>
       <c r="F13" t="n">
-        <v>142.4303736940358</v>
+        <v>142.4303736940357</v>
       </c>
       <c r="G13" t="n">
-        <v>96.50238712648061</v>
+        <v>96.50238712648047</v>
       </c>
       <c r="H13" t="n">
-        <v>58.7759564437895</v>
+        <v>58.77595644378955</v>
       </c>
       <c r="I13" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J13" t="n">
-        <v>83.6051939517161</v>
+        <v>83.60519395171609</v>
       </c>
       <c r="K13" t="n">
         <v>217.1118431813979</v>
       </c>
       <c r="L13" t="n">
-        <v>409.9300634242987</v>
+        <v>409.9300634242986</v>
       </c>
       <c r="M13" t="n">
-        <v>617.2472281952306</v>
+        <v>617.2472281952305</v>
       </c>
       <c r="N13" t="n">
-        <v>827.652341351295</v>
+        <v>827.6523413512949</v>
       </c>
       <c r="O13" t="n">
         <v>1015.892998529999</v>
       </c>
       <c r="P13" t="n">
-        <v>1171.201148218428</v>
+        <v>1171.201148218427</v>
       </c>
       <c r="Q13" t="n">
         <v>1232.783613813219</v>
@@ -5230,19 +5230,19 @@
         <v>988.561912148852</v>
       </c>
       <c r="U13" t="n">
-        <v>823.0520865199323</v>
+        <v>823.0520865199326</v>
       </c>
       <c r="V13" t="n">
-        <v>690.9796693452691</v>
+        <v>690.9796693452694</v>
       </c>
       <c r="W13" t="n">
-        <v>525.4161149782055</v>
+        <v>525.4161149782058</v>
       </c>
       <c r="X13" t="n">
-        <v>420.4103555152898</v>
+        <v>420.41035551529</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.8709456125167</v>
+        <v>322.8709456125166</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1154.929052070703</v>
+        <v>622.2066435278384</v>
       </c>
       <c r="C14" t="n">
-        <v>1154.929052070703</v>
+        <v>622.2066435278384</v>
       </c>
       <c r="D14" t="n">
-        <v>1154.929052070703</v>
+        <v>385.4186892949336</v>
       </c>
       <c r="E14" t="n">
-        <v>891.3599836956881</v>
+        <v>385.4186892949336</v>
       </c>
       <c r="F14" t="n">
-        <v>603.3708873153666</v>
+        <v>97.42959291461224</v>
       </c>
       <c r="G14" t="n">
-        <v>308.2764569239624</v>
+        <v>97.42959291461224</v>
       </c>
       <c r="H14" t="n">
-        <v>95.58354235443979</v>
+        <v>97.42959291461224</v>
       </c>
       <c r="I14" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J14" t="n">
-        <v>77.65547396715827</v>
+        <v>77.65547396715831</v>
       </c>
       <c r="K14" t="n">
         <v>265.2721781725822</v>
       </c>
       <c r="L14" t="n">
-        <v>549.9963680663914</v>
+        <v>549.9963680663915</v>
       </c>
       <c r="M14" t="n">
-        <v>882.0191836593863</v>
+        <v>882.0191836593865</v>
       </c>
       <c r="N14" t="n">
         <v>1203.897300535573</v>
       </c>
       <c r="O14" t="n">
-        <v>1461.709327550168</v>
+        <v>1459.522817596126</v>
       </c>
       <c r="P14" t="n">
-        <v>1642.620624793026</v>
+        <v>1642.620624793027</v>
       </c>
       <c r="Q14" t="n">
-        <v>1702.940051078811</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="R14" t="n">
-        <v>1702.940051078811</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="S14" t="n">
-        <v>1630.536099692632</v>
+        <v>1630.536099692634</v>
       </c>
       <c r="T14" t="n">
-        <v>1630.536099692632</v>
+        <v>1531.066226358922</v>
       </c>
       <c r="U14" t="n">
-        <v>1630.536099692632</v>
+        <v>1531.066226358922</v>
       </c>
       <c r="V14" t="n">
-        <v>1422.103207310312</v>
+        <v>1384.206264286543</v>
       </c>
       <c r="W14" t="n">
-        <v>1422.103207310312</v>
+        <v>1153.554285562773</v>
       </c>
       <c r="X14" t="n">
-        <v>1422.103207310312</v>
+        <v>1153.554285562773</v>
       </c>
       <c r="Y14" t="n">
-        <v>1154.929052070703</v>
+        <v>886.3801303231639</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>610.2292327323593</v>
+        <v>409.2322570749325</v>
       </c>
       <c r="C15" t="n">
-        <v>560.8949641834922</v>
+        <v>359.8979885260654</v>
       </c>
       <c r="D15" t="n">
-        <v>413.3066575424361</v>
+        <v>335.7285284143251</v>
       </c>
       <c r="E15" t="n">
-        <v>255.6971285452909</v>
+        <v>178.1189994171797</v>
       </c>
       <c r="F15" t="n">
-        <v>234.1601850912235</v>
+        <v>156.5820559631124</v>
       </c>
       <c r="G15" t="n">
-        <v>220.4664629392999</v>
+        <v>142.8883338111888</v>
       </c>
       <c r="H15" t="n">
-        <v>111.6369301496874</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="I15" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J15" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="K15" t="n">
         <v>218.3449932345172</v>
@@ -5367,40 +5367,40 @@
         <v>939.9646364016598</v>
       </c>
       <c r="N15" t="n">
-        <v>1361.442299043666</v>
+        <v>1000.067811829626</v>
       </c>
       <c r="O15" t="n">
-        <v>1361.442299043666</v>
+        <v>1334.31662210303</v>
       </c>
       <c r="P15" t="n">
-        <v>1586.154219164395</v>
+        <v>1586.154219164397</v>
       </c>
       <c r="Q15" t="n">
-        <v>1702.940051078811</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="R15" t="n">
-        <v>1702.940051078811</v>
+        <v>1696.567988240991</v>
       </c>
       <c r="S15" t="n">
-        <v>1660.977168769162</v>
+        <v>1531.186259402026</v>
       </c>
       <c r="T15" t="n">
-        <v>1532.944030697723</v>
+        <v>1455.365901569612</v>
       </c>
       <c r="U15" t="n">
-        <v>1429.455160307126</v>
+        <v>1228.458184649699</v>
       </c>
       <c r="V15" t="n">
-        <v>1195.203916832727</v>
+        <v>994.2069411753001</v>
       </c>
       <c r="W15" t="n">
-        <v>1066.108271695376</v>
+        <v>741.6924495086334</v>
       </c>
       <c r="X15" t="n">
-        <v>859.5813731009534</v>
+        <v>535.1655509142109</v>
       </c>
       <c r="Y15" t="n">
-        <v>777.2717838539197</v>
+        <v>452.8559616671772</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.3870734643739</v>
+        <v>264.3870734643735</v>
       </c>
       <c r="C16" t="n">
-        <v>218.7790988510611</v>
+        <v>218.7790988510607</v>
       </c>
       <c r="D16" t="n">
-        <v>191.6872721333876</v>
+        <v>191.6872721333872</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6469023261386</v>
+        <v>166.6469023261381</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4303736940357</v>
+        <v>142.4303736940352</v>
       </c>
       <c r="G16" t="n">
-        <v>96.50238712648047</v>
+        <v>96.50238712648023</v>
       </c>
       <c r="H16" t="n">
-        <v>58.77595644378948</v>
+        <v>58.77595644378953</v>
       </c>
       <c r="I16" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J16" t="n">
-        <v>83.60519395171607</v>
+        <v>83.6051939517161</v>
       </c>
       <c r="K16" t="n">
-        <v>217.1118431813979</v>
+        <v>217.1118431813977</v>
       </c>
       <c r="L16" t="n">
-        <v>409.9300634242987</v>
+        <v>409.9300634242985</v>
       </c>
       <c r="M16" t="n">
-        <v>617.2472281952306</v>
+        <v>617.2472281952303</v>
       </c>
       <c r="N16" t="n">
-        <v>827.6523413512951</v>
+        <v>827.6523413512947</v>
       </c>
       <c r="O16" t="n">
         <v>1015.892998529999</v>
       </c>
       <c r="P16" t="n">
-        <v>1171.201148218428</v>
+        <v>1171.201148218427</v>
       </c>
       <c r="Q16" t="n">
-        <v>1232.783613813219</v>
+        <v>1232.783613813218</v>
       </c>
       <c r="R16" t="n">
-        <v>1191.788672211093</v>
+        <v>1191.788672211092</v>
       </c>
       <c r="S16" t="n">
-        <v>1094.762403561585</v>
+        <v>1094.762403561584</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5619121488519</v>
+        <v>988.5619121488513</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0520865199325</v>
+        <v>823.0520865199319</v>
       </c>
       <c r="V16" t="n">
-        <v>690.9796693452693</v>
+        <v>690.9796693452687</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4161149782058</v>
+        <v>525.4161149782051</v>
       </c>
       <c r="X16" t="n">
-        <v>420.4103555152899</v>
+        <v>420.4103555152895</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.8709456125166</v>
+        <v>322.8709456125162</v>
       </c>
     </row>
     <row r="17">
@@ -5489,67 +5489,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>965.2070557926194</v>
+        <v>965.2070557926195</v>
       </c>
       <c r="C17" t="n">
-        <v>819.9769495656402</v>
+        <v>819.9769495656403</v>
       </c>
       <c r="D17" t="n">
-        <v>685.2320584137562</v>
+        <v>685.2320584137564</v>
       </c>
       <c r="E17" t="n">
-        <v>523.706053119762</v>
+        <v>523.7060531197621</v>
       </c>
       <c r="F17" t="n">
-        <v>337.7600198204614</v>
+        <v>337.7600198204615</v>
       </c>
       <c r="G17" t="n">
-        <v>144.708652510078</v>
+        <v>144.7086525100781</v>
       </c>
       <c r="H17" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="I17" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J17" t="n">
-        <v>75.46896401311412</v>
+        <v>77.65547396715831</v>
       </c>
       <c r="K17" t="n">
-        <v>263.085668218538</v>
+        <v>265.2721781725822</v>
       </c>
       <c r="L17" t="n">
-        <v>547.8098581123472</v>
+        <v>549.9963680663915</v>
       </c>
       <c r="M17" t="n">
-        <v>879.8326737053421</v>
+        <v>882.0191836593865</v>
       </c>
       <c r="N17" t="n">
-        <v>1201.710790581529</v>
+        <v>1203.897300535573</v>
       </c>
       <c r="O17" t="n">
-        <v>1459.522817596124</v>
+        <v>1459.522817596126</v>
       </c>
       <c r="P17" t="n">
-        <v>1642.620624793026</v>
+        <v>1642.620624793027</v>
       </c>
       <c r="Q17" t="n">
-        <v>1702.940051078811</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="R17" t="n">
-        <v>1702.940051078811</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="S17" t="n">
-        <v>1702.940051078811</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="T17" t="n">
-        <v>1702.940051078811</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="U17" t="n">
-        <v>1674.42657293525</v>
+        <v>1674.426572935251</v>
       </c>
       <c r="V17" t="n">
-        <v>1570.223253587995</v>
+        <v>1568.036743633952</v>
       </c>
       <c r="W17" t="n">
         <v>1441.614337945246</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>794.078110402583</v>
+        <v>624.0195340279337</v>
       </c>
       <c r="C18" t="n">
-        <v>621.3249953244001</v>
+        <v>561.790555771272</v>
       </c>
       <c r="D18" t="n">
-        <v>473.736688683344</v>
+        <v>414.2022491302158</v>
       </c>
       <c r="E18" t="n">
-        <v>316.1271596861988</v>
+        <v>256.5927201330705</v>
       </c>
       <c r="F18" t="n">
-        <v>171.1713697028156</v>
+        <v>111.6369301496874</v>
       </c>
       <c r="G18" t="n">
-        <v>34.05880102157622</v>
+        <v>111.6369301496874</v>
       </c>
       <c r="H18" t="n">
-        <v>34.05880102157622</v>
+        <v>111.6369301496874</v>
       </c>
       <c r="I18" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J18" t="n">
-        <v>67.80672594273673</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="K18" t="n">
-        <v>252.0929181556777</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="L18" t="n">
-        <v>560.7380528778434</v>
+        <v>342.703935743742</v>
       </c>
       <c r="M18" t="n">
-        <v>973.7125613228203</v>
+        <v>755.6784441887189</v>
       </c>
       <c r="N18" t="n">
-        <v>1000.067811829625</v>
+        <v>1000.067811829626</v>
       </c>
       <c r="O18" t="n">
-        <v>1334.316622103029</v>
+        <v>1334.31662210303</v>
       </c>
       <c r="P18" t="n">
-        <v>1586.154219164395</v>
+        <v>1586.154219164397</v>
       </c>
       <c r="Q18" t="n">
-        <v>1702.940051078811</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="R18" t="n">
-        <v>1702.940051078811</v>
+        <v>1624.959549784916</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.940051078811</v>
+        <v>1459.577820945952</v>
       </c>
       <c r="T18" t="n">
-        <v>1503.700846717081</v>
+        <v>1260.338616584222</v>
       </c>
       <c r="U18" t="n">
-        <v>1276.793129797168</v>
+        <v>1033.430899664309</v>
       </c>
       <c r="V18" t="n">
-        <v>1268.003795933106</v>
+        <v>1024.641565800247</v>
       </c>
       <c r="W18" t="n">
-        <v>1015.489304266439</v>
+        <v>997.5889837439166</v>
       </c>
       <c r="X18" t="n">
-        <v>808.9624056720165</v>
+        <v>791.0620851494941</v>
       </c>
       <c r="Y18" t="n">
-        <v>808.9624056720165</v>
+        <v>791.0620851494941</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="C19" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="D19" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="E19" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="F19" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="G19" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="H19" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="I19" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J19" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="K19" t="n">
-        <v>46.60263876787567</v>
+        <v>46.60263876787572</v>
       </c>
       <c r="L19" t="n">
-        <v>118.458047527394</v>
+        <v>118.4580475273941</v>
       </c>
       <c r="M19" t="n">
-        <v>204.8124008149435</v>
+        <v>204.8124008149436</v>
       </c>
       <c r="N19" t="n">
-        <v>294.2547024876256</v>
+        <v>294.2547024876257</v>
       </c>
       <c r="O19" t="n">
-        <v>361.532548182947</v>
+        <v>361.5325481829471</v>
       </c>
       <c r="P19" t="n">
-        <v>395.8778863879932</v>
+        <v>395.8778863879933</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.8778863879932</v>
+        <v>395.8778863879933</v>
       </c>
       <c r="R19" t="n">
-        <v>395.8778863879932</v>
+        <v>231.4640982565514</v>
       </c>
       <c r="S19" t="n">
-        <v>395.8778863879932</v>
+        <v>231.4640982565514</v>
       </c>
       <c r="T19" t="n">
-        <v>391.7204580562811</v>
+        <v>194.0381053310551</v>
       </c>
       <c r="U19" t="n">
-        <v>328.2536955083824</v>
+        <v>130.5713427831563</v>
       </c>
       <c r="V19" t="n">
-        <v>298.2243414147401</v>
+        <v>100.541988689514</v>
       </c>
       <c r="W19" t="n">
-        <v>234.7038501286974</v>
+        <v>37.02149740347124</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7411537468024</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.05880102157622</v>
+        <v>34.05880102157626</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>963.0205458385759</v>
+        <v>965.2070557926195</v>
       </c>
       <c r="C20" t="n">
-        <v>817.7904396115968</v>
+        <v>819.9769495656403</v>
       </c>
       <c r="D20" t="n">
-        <v>685.2320584137562</v>
+        <v>685.2320584137564</v>
       </c>
       <c r="E20" t="n">
-        <v>523.706053119762</v>
+        <v>523.7060531197621</v>
       </c>
       <c r="F20" t="n">
-        <v>337.7600198204614</v>
+        <v>337.7600198204615</v>
       </c>
       <c r="G20" t="n">
-        <v>144.708652510078</v>
+        <v>144.7086525100781</v>
       </c>
       <c r="H20" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="I20" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J20" t="n">
-        <v>77.65547396715829</v>
+        <v>77.65547396715831</v>
       </c>
       <c r="K20" t="n">
-        <v>265.2721781725822</v>
+        <v>263.0856682185396</v>
       </c>
       <c r="L20" t="n">
-        <v>549.9963680663914</v>
+        <v>547.8098581123488</v>
       </c>
       <c r="M20" t="n">
-        <v>882.0191836593863</v>
+        <v>879.8326737053437</v>
       </c>
       <c r="N20" t="n">
-        <v>1203.897300535573</v>
+        <v>1201.71079058153</v>
       </c>
       <c r="O20" t="n">
-        <v>1461.709327550168</v>
+        <v>1459.522817596126</v>
       </c>
       <c r="P20" t="n">
-        <v>1644.80713474707</v>
+        <v>1642.620624793027</v>
       </c>
       <c r="Q20" t="n">
-        <v>1702.940051078812</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="R20" t="n">
-        <v>1702.940051078812</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="S20" t="n">
-        <v>1702.940051078812</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="T20" t="n">
-        <v>1702.940051078812</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="U20" t="n">
-        <v>1674.426572935251</v>
+        <v>1674.426572935252</v>
       </c>
       <c r="V20" t="n">
-        <v>1568.036743633951</v>
+        <v>1570.223253587995</v>
       </c>
       <c r="W20" t="n">
-        <v>1439.427827991203</v>
+        <v>1441.614337945246</v>
       </c>
       <c r="X20" t="n">
-        <v>1290.282061711469</v>
+        <v>1292.468571665513</v>
       </c>
       <c r="Y20" t="n">
-        <v>1125.150969552881</v>
+        <v>1127.337479506924</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>765.7950745109563</v>
+        <v>269.2464591468327</v>
       </c>
       <c r="C21" t="n">
-        <v>593.0419594327734</v>
+        <v>269.2464591468327</v>
       </c>
       <c r="D21" t="n">
-        <v>445.4536527917172</v>
+        <v>269.2464591468327</v>
       </c>
       <c r="E21" t="n">
-        <v>287.8441237945719</v>
+        <v>111.6369301496874</v>
       </c>
       <c r="F21" t="n">
-        <v>142.8883338111887</v>
+        <v>111.6369301496874</v>
       </c>
       <c r="G21" t="n">
-        <v>142.8883338111887</v>
+        <v>111.6369301496874</v>
       </c>
       <c r="H21" t="n">
-        <v>34.05880102157624</v>
+        <v>111.6369301496874</v>
       </c>
       <c r="I21" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J21" t="n">
-        <v>67.80672594273676</v>
+        <v>67.80672594273678</v>
       </c>
       <c r="K21" t="n">
         <v>252.0929181556778</v>
       </c>
       <c r="L21" t="n">
-        <v>534.2390697184251</v>
+        <v>252.0929181556778</v>
       </c>
       <c r="M21" t="n">
-        <v>947.213578163402</v>
+        <v>665.0674266006547</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.691240805408</v>
+        <v>1000.067811829626</v>
       </c>
       <c r="O21" t="n">
-        <v>1702.940051078812</v>
+        <v>1334.31662210303</v>
       </c>
       <c r="P21" t="n">
-        <v>1702.940051078812</v>
+        <v>1586.154219164397</v>
       </c>
       <c r="Q21" t="n">
-        <v>1702.940051078812</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="R21" t="n">
-        <v>1702.940051078812</v>
+        <v>1702.940051078813</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.940051078812</v>
+        <v>1537.558322239848</v>
       </c>
       <c r="T21" t="n">
-        <v>1503.700846717082</v>
+        <v>1537.558322239848</v>
       </c>
       <c r="U21" t="n">
-        <v>1399.869886939596</v>
+        <v>1310.650605319936</v>
       </c>
       <c r="V21" t="n">
-        <v>1391.080553075533</v>
+        <v>1076.399361845537</v>
       </c>
       <c r="W21" t="n">
-        <v>1138.566061408866</v>
+        <v>823.8848701788701</v>
       </c>
       <c r="X21" t="n">
-        <v>1138.566061408866</v>
+        <v>617.3579715844476</v>
       </c>
       <c r="Y21" t="n">
-        <v>932.8376256325167</v>
+        <v>411.629535808098</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="D22" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="E22" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="F22" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="G22" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="H22" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="I22" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="J22" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="K22" t="n">
-        <v>46.60263876787569</v>
+        <v>46.60263876787572</v>
       </c>
       <c r="L22" t="n">
         <v>118.4580475273941</v>
       </c>
       <c r="M22" t="n">
-        <v>204.8124008149435</v>
+        <v>204.8124008149436</v>
       </c>
       <c r="N22" t="n">
-        <v>294.2547024876256</v>
+        <v>294.2547024876257</v>
       </c>
       <c r="O22" t="n">
-        <v>361.532548182947</v>
+        <v>361.5325481829471</v>
       </c>
       <c r="P22" t="n">
-        <v>395.8778863879932</v>
+        <v>395.8778863879933</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.8778863879932</v>
+        <v>395.8778863879933</v>
       </c>
       <c r="R22" t="n">
-        <v>395.8778863879932</v>
+        <v>395.8778863879933</v>
       </c>
       <c r="S22" t="n">
-        <v>395.8778863879932</v>
+        <v>395.8778863879933</v>
       </c>
       <c r="T22" t="n">
-        <v>391.7204580562811</v>
+        <v>391.7204580562812</v>
       </c>
       <c r="U22" t="n">
         <v>328.2536955083824</v>
       </c>
       <c r="V22" t="n">
-        <v>100.5419886895139</v>
+        <v>298.22434141474</v>
       </c>
       <c r="W22" t="n">
-        <v>37.02149740347119</v>
+        <v>37.02149740347124</v>
       </c>
       <c r="X22" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.05880102157624</v>
+        <v>34.05880102157626</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>965.2516784447427</v>
+        <v>965.2516784447428</v>
       </c>
       <c r="C23" t="n">
-        <v>820.0215722177635</v>
+        <v>820.0215722177636</v>
       </c>
       <c r="D23" t="n">
-        <v>685.2766810658795</v>
+        <v>685.2766810658798</v>
       </c>
       <c r="E23" t="n">
-        <v>523.7506757718853</v>
+        <v>523.7506757718857</v>
       </c>
       <c r="F23" t="n">
-        <v>337.8046424725846</v>
+        <v>337.8046424725851</v>
       </c>
       <c r="G23" t="n">
         <v>144.7532751622014</v>
@@ -5987,22 +5987,22 @@
         <v>34.10342367369957</v>
       </c>
       <c r="J23" t="n">
-        <v>77.70009661928168</v>
+        <v>77.70009661928157</v>
       </c>
       <c r="K23" t="n">
-        <v>265.3168008247057</v>
+        <v>265.3168008247054</v>
       </c>
       <c r="L23" t="n">
-        <v>550.0409907185149</v>
+        <v>550.0409907185146</v>
       </c>
       <c r="M23" t="n">
-        <v>882.0638063115098</v>
+        <v>882.0638063115097</v>
       </c>
       <c r="N23" t="n">
         <v>1203.941923187696</v>
       </c>
       <c r="O23" t="n">
-        <v>1461.753950202291</v>
+        <v>1461.753950202292</v>
       </c>
       <c r="P23" t="n">
         <v>1644.851757399194</v>
@@ -6020,19 +6020,19 @@
         <v>1705.171183684979</v>
       </c>
       <c r="U23" t="n">
-        <v>1676.657705541417</v>
+        <v>1676.657705541418</v>
       </c>
       <c r="V23" t="n">
-        <v>1570.267876240118</v>
+        <v>1570.267876240119</v>
       </c>
       <c r="W23" t="n">
-        <v>1441.658960597369</v>
+        <v>1441.65896059737</v>
       </c>
       <c r="X23" t="n">
         <v>1292.513194317636</v>
       </c>
       <c r="Y23" t="n">
-        <v>1127.382102159047</v>
+        <v>1127.382102159048</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>498.5027321516465</v>
+        <v>586.9999868605221</v>
       </c>
       <c r="C24" t="n">
-        <v>404.22564942625</v>
+        <v>414.2468717823392</v>
       </c>
       <c r="D24" t="n">
-        <v>256.6373427851939</v>
+        <v>414.2468717823392</v>
       </c>
       <c r="E24" t="n">
         <v>256.6373427851939</v>
@@ -6066,25 +6066,25 @@
         <v>34.10342367369957</v>
       </c>
       <c r="J24" t="n">
-        <v>67.8513485948601</v>
+        <v>34.10342367369957</v>
       </c>
       <c r="K24" t="n">
-        <v>252.1375408078011</v>
+        <v>34.10342367369957</v>
       </c>
       <c r="L24" t="n">
-        <v>560.7826755299668</v>
+        <v>342.7485583958653</v>
       </c>
       <c r="M24" t="n">
-        <v>832.1066735351266</v>
+        <v>755.7230668408422</v>
       </c>
       <c r="N24" t="n">
-        <v>1254.136541497159</v>
+        <v>1177.752934802875</v>
       </c>
       <c r="O24" t="n">
-        <v>1588.385351770563</v>
+        <v>1512.001745076278</v>
       </c>
       <c r="P24" t="n">
-        <v>1588.385351770563</v>
+        <v>1705.171183684979</v>
       </c>
       <c r="Q24" t="n">
         <v>1705.171183684979</v>
@@ -6093,25 +6093,25 @@
         <v>1705.171183684979</v>
       </c>
       <c r="S24" t="n">
-        <v>1539.789454846014</v>
+        <v>1705.171183684979</v>
       </c>
       <c r="T24" t="n">
-        <v>1340.550250484284</v>
+        <v>1505.931979323248</v>
       </c>
       <c r="U24" t="n">
-        <v>1113.642533564371</v>
+        <v>1279.024262403336</v>
       </c>
       <c r="V24" t="n">
-        <v>1104.853199700309</v>
+        <v>1044.773018928937</v>
       </c>
       <c r="W24" t="n">
-        <v>1077.800617643979</v>
+        <v>792.2585272622701</v>
       </c>
       <c r="X24" t="n">
-        <v>871.2737190495565</v>
+        <v>792.2585272622701</v>
       </c>
       <c r="Y24" t="n">
-        <v>665.5452832732069</v>
+        <v>586.9999868605221</v>
       </c>
     </row>
     <row r="25">
@@ -6148,7 +6148,7 @@
         <v>34.10342367369957</v>
       </c>
       <c r="K25" t="n">
-        <v>46.64726141999903</v>
+        <v>46.64726141999904</v>
       </c>
       <c r="L25" t="n">
         <v>118.5026701795174</v>
@@ -6157,7 +6157,7 @@
         <v>204.8570234670669</v>
       </c>
       <c r="N25" t="n">
-        <v>294.2993251397489</v>
+        <v>294.299325139749</v>
       </c>
       <c r="O25" t="n">
         <v>361.5771708350704</v>
@@ -6178,16 +6178,16 @@
         <v>391.7650807084045</v>
       </c>
       <c r="U25" t="n">
-        <v>130.6159654352796</v>
+        <v>328.2983181605058</v>
       </c>
       <c r="V25" t="n">
-        <v>100.5866113416372</v>
+        <v>298.2689640668634</v>
       </c>
       <c r="W25" t="n">
-        <v>37.06612005559452</v>
+        <v>234.7484727808207</v>
       </c>
       <c r="X25" t="n">
-        <v>34.10342367369957</v>
+        <v>231.7857763989257</v>
       </c>
       <c r="Y25" t="n">
         <v>34.10342367369957</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.825360942858</v>
+        <v>1523.825360942856</v>
       </c>
       <c r="C26" t="n">
-        <v>1296.651298561552</v>
+        <v>1296.65129856155</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.962451255341</v>
+        <v>1079.962451255339</v>
       </c>
       <c r="E26" t="n">
-        <v>836.4924898070199</v>
+        <v>836.4924898070202</v>
       </c>
       <c r="F26" t="n">
-        <v>568.6025003533923</v>
+        <v>568.6025003533925</v>
       </c>
       <c r="G26" t="n">
-        <v>293.607176888682</v>
+        <v>293.6071768886821</v>
       </c>
       <c r="H26" t="n">
         <v>101.0133692458533</v>
       </c>
       <c r="I26" t="n">
-        <v>57.74168427951118</v>
+        <v>57.74168427951115</v>
       </c>
       <c r="J26" t="n">
-        <v>242.0003034073286</v>
+        <v>242.0003034073281</v>
       </c>
       <c r="K26" t="n">
-        <v>570.2789537949877</v>
+        <v>570.278953794987</v>
       </c>
       <c r="L26" t="n">
-        <v>995.6650898710318</v>
+        <v>995.6650898710313</v>
       </c>
       <c r="M26" t="n">
-        <v>1468.349851646262</v>
+        <v>1468.349851646261</v>
       </c>
       <c r="N26" t="n">
-        <v>1930.889914704684</v>
+        <v>1930.889914704683</v>
       </c>
       <c r="O26" t="n">
-        <v>2329.363887901514</v>
+        <v>2329.363887901513</v>
       </c>
       <c r="P26" t="n">
         <v>2653.12364128065</v>
       </c>
       <c r="Q26" t="n">
-        <v>2854.105013748671</v>
+        <v>2854.10501374867</v>
       </c>
       <c r="R26" t="n">
-        <v>2887.084213975559</v>
+        <v>2887.084213975558</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.779369516074</v>
+        <v>2834.779369516073</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.408603109056</v>
+        <v>2755.408603109055</v>
       </c>
       <c r="U26" t="n">
-        <v>2644.951168811168</v>
+        <v>2644.951168811167</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.617383355542</v>
+        <v>2456.61738335554</v>
       </c>
       <c r="W26" t="n">
-        <v>2246.064511558466</v>
+        <v>2246.064511558464</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.974789124406</v>
+        <v>2014.974789124404</v>
       </c>
       <c r="Y26" t="n">
-        <v>1767.89974081149</v>
+        <v>1767.899740811488</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>481.9788599188815</v>
+        <v>860.6507021222321</v>
       </c>
       <c r="C27" t="n">
-        <v>435.550100798427</v>
+        <v>687.8975870440493</v>
       </c>
       <c r="D27" t="n">
-        <v>287.9617941573708</v>
+        <v>540.3092804029931</v>
       </c>
       <c r="E27" t="n">
-        <v>273.8702186162352</v>
+        <v>382.6997514058477</v>
       </c>
       <c r="F27" t="n">
-        <v>272.4323820888617</v>
+        <v>381.2619148784742</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3198134076223</v>
+        <v>244.1493461972348</v>
       </c>
       <c r="H27" t="n">
         <v>135.3198134076223</v>
       </c>
       <c r="I27" t="n">
-        <v>57.74168427951118</v>
+        <v>57.74168427951115</v>
       </c>
       <c r="J27" t="n">
-        <v>91.48960920067169</v>
+        <v>91.48960920067168</v>
       </c>
       <c r="K27" t="n">
         <v>275.7758014136127</v>
@@ -6327,28 +6327,28 @@
         <v>2139.571130672887</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.571130672887</v>
+        <v>2061.590629378991</v>
       </c>
       <c r="S27" t="n">
-        <v>1974.189401833923</v>
+        <v>1896.208900540026</v>
       </c>
       <c r="T27" t="n">
-        <v>1774.950197472192</v>
+        <v>1840.487649634306</v>
       </c>
       <c r="U27" t="n">
-        <v>1548.04248055228</v>
+        <v>1757.097886170403</v>
       </c>
       <c r="V27" t="n">
-        <v>1313.791237077881</v>
+        <v>1666.364596152013</v>
       </c>
       <c r="W27" t="n">
-        <v>1061.276745411214</v>
+        <v>1413.850104485346</v>
       </c>
       <c r="X27" t="n">
-        <v>854.7498468167915</v>
+        <v>1207.323205890924</v>
       </c>
       <c r="Y27" t="n">
-        <v>649.021411040442</v>
+        <v>1001.594770114574</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.3762082354517</v>
+        <v>147.3762082354523</v>
       </c>
       <c r="C28" t="n">
-        <v>121.8673405488327</v>
+        <v>121.8673405488332</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8746207578532</v>
+        <v>114.8746207578536</v>
       </c>
       <c r="E28" t="n">
-        <v>109.933357877298</v>
+        <v>109.9333578772983</v>
       </c>
       <c r="F28" t="n">
-        <v>105.815936171889</v>
+        <v>105.8159361718893</v>
       </c>
       <c r="G28" t="n">
-        <v>79.98705653102776</v>
+        <v>79.98705653102792</v>
       </c>
       <c r="H28" t="n">
-        <v>62.35973277503056</v>
+        <v>62.35973277503062</v>
       </c>
       <c r="I28" t="n">
-        <v>57.74168427951118</v>
+        <v>57.74168427951115</v>
       </c>
       <c r="J28" t="n">
-        <v>57.74168427951118</v>
+        <v>126.9872119085036</v>
       </c>
       <c r="K28" t="n">
-        <v>210.9474682080457</v>
+        <v>163.6197000772303</v>
       </c>
       <c r="L28" t="n">
-        <v>423.4648231497992</v>
+        <v>235.4751088367487</v>
       </c>
       <c r="M28" t="n">
-        <v>509.8191764373487</v>
+        <v>321.8294621242982</v>
       </c>
       <c r="N28" t="n">
-        <v>599.2614781100308</v>
+        <v>551.9337099792152</v>
       </c>
       <c r="O28" t="n">
-        <v>759.8735018567702</v>
+        <v>759.8735018567717</v>
       </c>
       <c r="P28" t="n">
-        <v>934.8807862440515</v>
+        <v>934.8807862440528</v>
       </c>
       <c r="Q28" t="n">
-        <v>934.8807862440515</v>
+        <v>934.8807862440528</v>
       </c>
       <c r="R28" t="n">
-        <v>913.9849515686193</v>
+        <v>913.9849515686205</v>
       </c>
       <c r="S28" t="n">
-        <v>837.0577898458052</v>
+        <v>837.0577898458064</v>
       </c>
       <c r="T28" t="n">
-        <v>750.9564053597662</v>
+        <v>750.9564053597672</v>
       </c>
       <c r="U28" t="n">
-        <v>605.5456866575406</v>
+        <v>605.5456866575415</v>
       </c>
       <c r="V28" t="n">
-        <v>493.5723764095713</v>
+        <v>493.5723764095722</v>
       </c>
       <c r="W28" t="n">
-        <v>348.1079289692017</v>
+        <v>348.1079289692025</v>
       </c>
       <c r="X28" t="n">
-        <v>263.2012764329798</v>
+        <v>263.2012764329805</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.7609734569004</v>
+        <v>185.760973456901</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1523.825360942858</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.651298561552</v>
+        <v>1296.651298561551</v>
       </c>
       <c r="D29" t="n">
         <v>1079.962451255341</v>
       </c>
       <c r="E29" t="n">
-        <v>836.4924898070203</v>
+        <v>836.4924898070194</v>
       </c>
       <c r="F29" t="n">
-        <v>568.6025003533927</v>
+        <v>568.6025003533919</v>
       </c>
       <c r="G29" t="n">
-        <v>293.6071768886823</v>
+        <v>293.6071768886815</v>
       </c>
       <c r="H29" t="n">
         <v>101.0133692458533</v>
@@ -6461,13 +6461,13 @@
         <v>57.74168427951115</v>
       </c>
       <c r="J29" t="n">
-        <v>242.0003034073278</v>
+        <v>242.000303407328</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2789537949868</v>
+        <v>570.278953794987</v>
       </c>
       <c r="L29" t="n">
-        <v>995.6650898710311</v>
+        <v>995.6650898710313</v>
       </c>
       <c r="M29" t="n">
         <v>1468.349851646261</v>
@@ -6479,7 +6479,7 @@
         <v>2329.363887901513</v>
       </c>
       <c r="P29" t="n">
-        <v>2653.12364128065</v>
+        <v>2653.123641280649</v>
       </c>
       <c r="Q29" t="n">
         <v>2854.10501374867</v>
@@ -6491,19 +6491,19 @@
         <v>2834.779369516073</v>
       </c>
       <c r="T29" t="n">
-        <v>2755.408603109056</v>
+        <v>2755.408603109055</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.951168811168</v>
+        <v>2644.951168811167</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.617383355542</v>
+        <v>2456.617383355541</v>
       </c>
       <c r="W29" t="n">
         <v>2246.064511558466</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.974789124406</v>
+        <v>2014.974789124405</v>
       </c>
       <c r="Y29" t="n">
         <v>1767.89974081149</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>674.2430402045082</v>
+        <v>751.8211693326193</v>
       </c>
       <c r="C30" t="n">
-        <v>501.4899251263254</v>
+        <v>722.5860077104462</v>
       </c>
       <c r="D30" t="n">
-        <v>353.9016184852693</v>
+        <v>574.9977010693901</v>
       </c>
       <c r="E30" t="n">
-        <v>339.8100429441337</v>
+        <v>417.3881720722449</v>
       </c>
       <c r="F30" t="n">
-        <v>194.8542529607506</v>
+        <v>272.4323820888617</v>
       </c>
       <c r="G30" t="n">
-        <v>57.74168427951115</v>
+        <v>135.3198134076223</v>
       </c>
       <c r="H30" t="n">
-        <v>57.74168427951115</v>
+        <v>135.3198134076223</v>
       </c>
       <c r="I30" t="n">
         <v>57.74168427951115</v>
@@ -6564,28 +6564,28 @@
         <v>2139.571130672887</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.571130672887</v>
+        <v>2061.590629378991</v>
       </c>
       <c r="S30" t="n">
-        <v>2117.707355289932</v>
+        <v>1896.208900540026</v>
       </c>
       <c r="T30" t="n">
-        <v>1967.214377757819</v>
+        <v>1840.487649634306</v>
       </c>
       <c r="U30" t="n">
-        <v>1740.306660837907</v>
+        <v>1757.097886170403</v>
       </c>
       <c r="V30" t="n">
-        <v>1506.055417363507</v>
+        <v>1522.846642696004</v>
       </c>
       <c r="W30" t="n">
-        <v>1253.540925696841</v>
+        <v>1331.119054824952</v>
       </c>
       <c r="X30" t="n">
-        <v>1047.014027102418</v>
+        <v>1124.592156230529</v>
       </c>
       <c r="Y30" t="n">
-        <v>841.2855913260687</v>
+        <v>918.8637204541798</v>
       </c>
     </row>
     <row r="31">
@@ -6622,19 +6622,19 @@
         <v>57.74168427951115</v>
       </c>
       <c r="K31" t="n">
-        <v>210.9474682080457</v>
+        <v>70.28552202581062</v>
       </c>
       <c r="L31" t="n">
-        <v>423.4648231497991</v>
+        <v>282.8028769675641</v>
       </c>
       <c r="M31" t="n">
-        <v>509.8191764373486</v>
+        <v>509.8191764373487</v>
       </c>
       <c r="N31" t="n">
-        <v>611.3140558678049</v>
+        <v>739.9234242922658</v>
       </c>
       <c r="O31" t="n">
-        <v>678.5919015631264</v>
+        <v>807.2012699875874</v>
       </c>
       <c r="P31" t="n">
         <v>853.5991859504076</v>
@@ -6683,10 +6683,10 @@
         <v>1079.962451255341</v>
       </c>
       <c r="E32" t="n">
-        <v>836.4924898070199</v>
+        <v>836.4924898070196</v>
       </c>
       <c r="F32" t="n">
-        <v>568.6025003533922</v>
+        <v>568.6025003533921</v>
       </c>
       <c r="G32" t="n">
         <v>293.6071768886818</v>
@@ -6695,40 +6695,40 @@
         <v>101.0133692458533</v>
       </c>
       <c r="I32" t="n">
-        <v>57.74168427951115</v>
+        <v>57.74168427951118</v>
       </c>
       <c r="J32" t="n">
         <v>242.0003034073283</v>
       </c>
       <c r="K32" t="n">
-        <v>570.2789537949872</v>
+        <v>570.2789537949874</v>
       </c>
       <c r="L32" t="n">
-        <v>995.6650898710315</v>
+        <v>995.6650898710318</v>
       </c>
       <c r="M32" t="n">
         <v>1468.349851646261</v>
       </c>
       <c r="N32" t="n">
-        <v>1930.889914704682</v>
+        <v>1930.889914704683</v>
       </c>
       <c r="O32" t="n">
-        <v>2329.363887901512</v>
+        <v>2329.363887901513</v>
       </c>
       <c r="P32" t="n">
-        <v>2653.12364128065</v>
+        <v>2653.123641280651</v>
       </c>
       <c r="Q32" t="n">
-        <v>2854.10501374867</v>
+        <v>2854.105013748671</v>
       </c>
       <c r="R32" t="n">
-        <v>2887.084213975558</v>
+        <v>2887.084213975559</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.779369516073</v>
+        <v>2834.779369516074</v>
       </c>
       <c r="T32" t="n">
-        <v>2755.408603109055</v>
+        <v>2755.408603109056</v>
       </c>
       <c r="U32" t="n">
         <v>2644.951168811167</v>
@@ -6743,7 +6743,7 @@
         <v>2014.974789124405</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.89974081149</v>
+        <v>1767.899740811489</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>674.2430402045082</v>
+        <v>834.5522189930142</v>
       </c>
       <c r="C33" t="n">
-        <v>501.4899251263254</v>
+        <v>661.7991039148314</v>
       </c>
       <c r="D33" t="n">
-        <v>353.9016184852693</v>
+        <v>514.2107972737754</v>
       </c>
       <c r="E33" t="n">
-        <v>196.292089488124</v>
+        <v>356.6012682766301</v>
       </c>
       <c r="F33" t="n">
-        <v>194.8542529607506</v>
+        <v>211.645478293247</v>
       </c>
       <c r="G33" t="n">
-        <v>57.74168427951115</v>
+        <v>74.53290961200756</v>
       </c>
       <c r="H33" t="n">
-        <v>57.74168427951115</v>
+        <v>57.74168427951118</v>
       </c>
       <c r="I33" t="n">
-        <v>57.74168427951115</v>
+        <v>57.74168427951118</v>
       </c>
       <c r="J33" t="n">
-        <v>91.48960920067168</v>
+        <v>91.48960920067171</v>
       </c>
       <c r="K33" t="n">
         <v>275.7758014136127</v>
@@ -6801,28 +6801,28 @@
         <v>2139.571130672887</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.571130672887</v>
+        <v>2061.590629378991</v>
       </c>
       <c r="S33" t="n">
-        <v>2117.707355289932</v>
+        <v>2039.726853996036</v>
       </c>
       <c r="T33" t="n">
-        <v>1918.468150928202</v>
+        <v>1984.005603090316</v>
       </c>
       <c r="U33" t="n">
-        <v>1691.56043400829</v>
+        <v>1757.097886170403</v>
       </c>
       <c r="V33" t="n">
-        <v>1506.055417363507</v>
+        <v>1522.846642696004</v>
       </c>
       <c r="W33" t="n">
-        <v>1253.540925696841</v>
+        <v>1270.332151029337</v>
       </c>
       <c r="X33" t="n">
-        <v>1047.014027102418</v>
+        <v>1063.805252434915</v>
       </c>
       <c r="Y33" t="n">
-        <v>841.2855913260687</v>
+        <v>858.076816658565</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.3762082354519</v>
+        <v>147.3762082354517</v>
       </c>
       <c r="C34" t="n">
-        <v>121.8673405488329</v>
+        <v>121.8673405488327</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8746207578533</v>
+        <v>114.8746207578532</v>
       </c>
       <c r="E34" t="n">
-        <v>109.9333578772981</v>
+        <v>109.933357877298</v>
       </c>
       <c r="F34" t="n">
-        <v>105.8159361718891</v>
+        <v>105.815936171889</v>
       </c>
       <c r="G34" t="n">
-        <v>79.9870565310278</v>
+        <v>79.98705653102778</v>
       </c>
       <c r="H34" t="n">
         <v>62.35973277503057</v>
       </c>
       <c r="I34" t="n">
-        <v>57.74168427951115</v>
+        <v>57.74168427951118</v>
       </c>
       <c r="J34" t="n">
-        <v>57.74168427951115</v>
+        <v>126.9872119085037</v>
       </c>
       <c r="K34" t="n">
-        <v>70.28552202581061</v>
+        <v>139.5310496548032</v>
       </c>
       <c r="L34" t="n">
-        <v>282.802876967564</v>
+        <v>211.3864584143216</v>
       </c>
       <c r="M34" t="n">
-        <v>462.491408306532</v>
+        <v>438.4027578841061</v>
       </c>
       <c r="N34" t="n">
-        <v>692.5956561614491</v>
+        <v>668.5070057390233</v>
       </c>
       <c r="O34" t="n">
-        <v>759.8735018567706</v>
+        <v>819.2538477453609</v>
       </c>
       <c r="P34" t="n">
-        <v>934.8807862440519</v>
+        <v>853.599185950407</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.8807862440519</v>
+        <v>934.8807862440515</v>
       </c>
       <c r="R34" t="n">
-        <v>913.9849515686197</v>
+        <v>913.9849515686193</v>
       </c>
       <c r="S34" t="n">
-        <v>837.0577898458057</v>
+        <v>837.0577898458052</v>
       </c>
       <c r="T34" t="n">
-        <v>750.9564053597667</v>
+        <v>750.9564053597662</v>
       </c>
       <c r="U34" t="n">
-        <v>605.545686657541</v>
+        <v>605.5456866575406</v>
       </c>
       <c r="V34" t="n">
-        <v>493.5723764095717</v>
+        <v>493.5723764095713</v>
       </c>
       <c r="W34" t="n">
-        <v>348.107928969202</v>
+        <v>348.1079289692017</v>
       </c>
       <c r="X34" t="n">
-        <v>263.2012764329801</v>
+        <v>263.2012764329799</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.7609734569006</v>
+        <v>185.7609734569004</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>965.2516784447428</v>
       </c>
       <c r="C35" t="n">
-        <v>820.0215722177636</v>
+        <v>820.0215722177637</v>
       </c>
       <c r="D35" t="n">
         <v>685.2766810658798</v>
       </c>
       <c r="E35" t="n">
-        <v>523.7506757718857</v>
+        <v>523.7506757718855</v>
       </c>
       <c r="F35" t="n">
-        <v>337.8046424725852</v>
+        <v>337.8046424725849</v>
       </c>
       <c r="G35" t="n">
-        <v>144.7532751622013</v>
+        <v>144.7532751622014</v>
       </c>
       <c r="H35" t="n">
         <v>34.10342367369957</v>
@@ -6935,10 +6935,10 @@
         <v>34.10342367369957</v>
       </c>
       <c r="J35" t="n">
-        <v>77.70009661928179</v>
+        <v>77.70009661928164</v>
       </c>
       <c r="K35" t="n">
-        <v>265.3168008247058</v>
+        <v>265.3168008247056</v>
       </c>
       <c r="L35" t="n">
         <v>550.0409907185149</v>
@@ -6950,7 +6950,7 @@
         <v>1203.941923187696</v>
       </c>
       <c r="O35" t="n">
-        <v>1461.753950202291</v>
+        <v>1461.753950202292</v>
       </c>
       <c r="P35" t="n">
         <v>1644.851757399194</v>
@@ -6974,13 +6974,13 @@
         <v>1570.267876240118</v>
       </c>
       <c r="W35" t="n">
-        <v>1441.658960597369</v>
+        <v>1441.65896059737</v>
       </c>
       <c r="X35" t="n">
         <v>1292.513194317636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1127.382102159047</v>
+        <v>1127.382102159048</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>593.0865820848967</v>
+        <v>605.4651025018345</v>
       </c>
       <c r="C36" t="n">
-        <v>593.0865820848967</v>
+        <v>432.7119874236517</v>
       </c>
       <c r="D36" t="n">
-        <v>445.4982754438405</v>
+        <v>432.7119874236517</v>
       </c>
       <c r="E36" t="n">
-        <v>287.8887464466952</v>
+        <v>432.7119874236517</v>
       </c>
       <c r="F36" t="n">
-        <v>142.9329564633121</v>
+        <v>287.7561974402686</v>
       </c>
       <c r="G36" t="n">
-        <v>142.9329564633121</v>
+        <v>220.5110855914232</v>
       </c>
       <c r="H36" t="n">
-        <v>34.10342367369957</v>
+        <v>111.6815528018107</v>
       </c>
       <c r="I36" t="n">
         <v>34.10342367369957</v>
       </c>
       <c r="J36" t="n">
-        <v>34.10342367369957</v>
+        <v>67.8513485948601</v>
       </c>
       <c r="K36" t="n">
-        <v>34.10342367369957</v>
+        <v>252.1375408078011</v>
       </c>
       <c r="L36" t="n">
-        <v>284.080399943199</v>
+        <v>560.7826755299668</v>
       </c>
       <c r="M36" t="n">
-        <v>697.0549083881759</v>
+        <v>973.7571839749437</v>
       </c>
       <c r="N36" t="n">
-        <v>1119.084776350208</v>
+        <v>1002.298944435792</v>
       </c>
       <c r="O36" t="n">
-        <v>1453.333586623612</v>
+        <v>1336.547754709196</v>
       </c>
       <c r="P36" t="n">
-        <v>1705.171183684979</v>
+        <v>1588.385351770563</v>
       </c>
       <c r="Q36" t="n">
         <v>1705.171183684979</v>
@@ -7044,22 +7044,22 @@
         <v>1705.171183684979</v>
       </c>
       <c r="T36" t="n">
-        <v>1705.171183684979</v>
+        <v>1505.931979323248</v>
       </c>
       <c r="U36" t="n">
-        <v>1478.263466765066</v>
+        <v>1279.024262403336</v>
       </c>
       <c r="V36" t="n">
-        <v>1244.012223290667</v>
+        <v>1044.773018928937</v>
       </c>
       <c r="W36" t="n">
-        <v>991.4977316240003</v>
+        <v>1017.720436872607</v>
       </c>
       <c r="X36" t="n">
-        <v>784.9708330295778</v>
+        <v>811.1935382781841</v>
       </c>
       <c r="Y36" t="n">
-        <v>593.0865820848967</v>
+        <v>605.4651025018345</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>203.1302448163282</v>
+        <v>182.5626400102644</v>
       </c>
       <c r="C37" t="n">
-        <v>34.10342367369957</v>
+        <v>182.5626400102644</v>
       </c>
       <c r="D37" t="n">
-        <v>34.10342367369957</v>
+        <v>182.5626400102644</v>
       </c>
       <c r="E37" t="n">
         <v>34.10342367369957</v>
@@ -7096,7 +7096,7 @@
         <v>34.10342367369957</v>
       </c>
       <c r="K37" t="n">
-        <v>46.64726141999903</v>
+        <v>46.64726141999904</v>
       </c>
       <c r="L37" t="n">
         <v>118.5026701795174</v>
@@ -7105,7 +7105,7 @@
         <v>204.8570234670669</v>
       </c>
       <c r="N37" t="n">
-        <v>294.2993251397489</v>
+        <v>294.299325139749</v>
       </c>
       <c r="O37" t="n">
         <v>361.5771708350704</v>
@@ -7114,31 +7114,31 @@
         <v>395.9225090401166</v>
       </c>
       <c r="Q37" t="n">
-        <v>395.9225090401166</v>
+        <v>346.6993726514552</v>
       </c>
       <c r="R37" t="n">
-        <v>395.9225090401166</v>
+        <v>346.6993726514552</v>
       </c>
       <c r="S37" t="n">
-        <v>395.9225090401166</v>
+        <v>346.6993726514552</v>
       </c>
       <c r="T37" t="n">
-        <v>391.7650807084046</v>
+        <v>342.5419443197431</v>
       </c>
       <c r="U37" t="n">
-        <v>328.2983181605059</v>
+        <v>279.0751817718444</v>
       </c>
       <c r="V37" t="n">
-        <v>298.2689640668636</v>
+        <v>249.045827678202</v>
       </c>
       <c r="W37" t="n">
-        <v>234.748472780821</v>
+        <v>185.5253363921593</v>
       </c>
       <c r="X37" t="n">
-        <v>203.1302448163282</v>
+        <v>182.5626400102644</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.1302448163282</v>
+        <v>182.5626400102644</v>
       </c>
     </row>
     <row r="38">
@@ -7172,16 +7172,16 @@
         <v>34.10342367369957</v>
       </c>
       <c r="J38" t="n">
-        <v>77.70009661928179</v>
+        <v>77.70009661928157</v>
       </c>
       <c r="K38" t="n">
-        <v>265.3168008247058</v>
+        <v>265.3168008247055</v>
       </c>
       <c r="L38" t="n">
         <v>550.0409907185149</v>
       </c>
       <c r="M38" t="n">
-        <v>882.0638063115098</v>
+        <v>882.0638063115097</v>
       </c>
       <c r="N38" t="n">
         <v>1203.941923187696</v>
@@ -7190,7 +7190,7 @@
         <v>1461.753950202291</v>
       </c>
       <c r="P38" t="n">
-        <v>1644.851757399194</v>
+        <v>1644.851757399193</v>
       </c>
       <c r="Q38" t="n">
         <v>1705.171183684979</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>212.9606417699374</v>
+        <v>714.2780259683735</v>
       </c>
       <c r="C39" t="n">
-        <v>212.9606417699374</v>
+        <v>561.8351784233953</v>
       </c>
       <c r="D39" t="n">
-        <v>212.9606417699374</v>
+        <v>414.2468717823392</v>
       </c>
       <c r="E39" t="n">
-        <v>179.0592136570827</v>
+        <v>256.6373427851939</v>
       </c>
       <c r="F39" t="n">
-        <v>34.10342367369957</v>
+        <v>111.6815528018107</v>
       </c>
       <c r="G39" t="n">
-        <v>34.10342367369957</v>
+        <v>111.6815528018107</v>
       </c>
       <c r="H39" t="n">
-        <v>34.10342367369957</v>
+        <v>111.6815528018107</v>
       </c>
       <c r="I39" t="n">
         <v>34.10342367369957</v>
@@ -7260,13 +7260,13 @@
         <v>560.7826755299668</v>
       </c>
       <c r="M39" t="n">
-        <v>832.1066735351266</v>
+        <v>580.26907647376</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.136541497159</v>
+        <v>1002.298944435792</v>
       </c>
       <c r="O39" t="n">
-        <v>1588.385351770563</v>
+        <v>1336.547754709196</v>
       </c>
       <c r="P39" t="n">
         <v>1588.385351770563</v>
@@ -7275,28 +7275,28 @@
         <v>1705.171183684979</v>
       </c>
       <c r="R39" t="n">
-        <v>1705.171183684979</v>
+        <v>1627.190682391082</v>
       </c>
       <c r="S39" t="n">
-        <v>1705.171183684979</v>
+        <v>1627.190682391082</v>
       </c>
       <c r="T39" t="n">
-        <v>1505.931979323248</v>
+        <v>1427.951478029352</v>
       </c>
       <c r="U39" t="n">
-        <v>1279.024262403336</v>
+        <v>1201.043761109439</v>
       </c>
       <c r="V39" t="n">
-        <v>1044.773018928937</v>
+        <v>966.7925176350402</v>
       </c>
       <c r="W39" t="n">
-        <v>792.2585272622699</v>
+        <v>714.2780259683735</v>
       </c>
       <c r="X39" t="n">
-        <v>585.7316286678474</v>
+        <v>714.2780259683735</v>
       </c>
       <c r="Y39" t="n">
-        <v>380.0031928914979</v>
+        <v>714.2780259683735</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231.7857763989257</v>
+        <v>34.10342367369957</v>
       </c>
       <c r="C40" t="n">
-        <v>184.6140969206888</v>
+        <v>34.10342367369957</v>
       </c>
       <c r="D40" t="n">
         <v>34.10342367369957</v>
@@ -7333,7 +7333,7 @@
         <v>34.10342367369957</v>
       </c>
       <c r="K40" t="n">
-        <v>46.64726141999903</v>
+        <v>46.64726141999904</v>
       </c>
       <c r="L40" t="n">
         <v>118.5026701795174</v>
@@ -7342,7 +7342,7 @@
         <v>204.8570234670669</v>
       </c>
       <c r="N40" t="n">
-        <v>294.2993251397489</v>
+        <v>294.299325139749</v>
       </c>
       <c r="O40" t="n">
         <v>361.5771708350704</v>
@@ -7363,19 +7363,19 @@
         <v>391.7650807084045</v>
       </c>
       <c r="U40" t="n">
-        <v>328.2983181605057</v>
+        <v>328.2983181605058</v>
       </c>
       <c r="V40" t="n">
-        <v>298.2689640668634</v>
+        <v>298.2689640668635</v>
       </c>
       <c r="W40" t="n">
         <v>234.7484727808207</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7857763989257</v>
+        <v>231.7857763989258</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.7857763989257</v>
+        <v>34.10342367369957</v>
       </c>
     </row>
     <row r="41">
@@ -7406,28 +7406,28 @@
         <v>34.73359259140783</v>
       </c>
       <c r="I41" t="n">
-        <v>34.73359259140783</v>
+        <v>65.61186955911242</v>
       </c>
       <c r="J41" t="n">
-        <v>78.33026553698988</v>
+        <v>109.2085425046945</v>
       </c>
       <c r="K41" t="n">
-        <v>265.9469697424138</v>
+        <v>296.8252467101184</v>
       </c>
       <c r="L41" t="n">
-        <v>550.6711596362229</v>
+        <v>581.5494366039277</v>
       </c>
       <c r="M41" t="n">
-        <v>882.6939752292178</v>
+        <v>913.5722521969226</v>
       </c>
       <c r="N41" t="n">
-        <v>1204.572092105404</v>
+        <v>1235.450369073109</v>
       </c>
       <c r="O41" t="n">
-        <v>1462.38411912</v>
+        <v>1493.262396087704</v>
       </c>
       <c r="P41" t="n">
-        <v>1676.360203284607</v>
+        <v>1676.360203284606</v>
       </c>
       <c r="Q41" t="n">
         <v>1736.679629570392</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>657.6403332911752</v>
+        <v>699.0922052255157</v>
       </c>
       <c r="C42" t="n">
-        <v>484.8872182129924</v>
+        <v>526.3390901473329</v>
       </c>
       <c r="D42" t="n">
-        <v>337.2989115719363</v>
+        <v>378.7507835062768</v>
       </c>
       <c r="E42" t="n">
-        <v>179.689382574791</v>
+        <v>221.1412545091315</v>
       </c>
       <c r="F42" t="n">
-        <v>34.73359259140783</v>
+        <v>221.1412545091315</v>
       </c>
       <c r="G42" t="n">
-        <v>34.73359259140783</v>
+        <v>221.1412545091315</v>
       </c>
       <c r="H42" t="n">
-        <v>34.73359259140783</v>
+        <v>112.311721719519</v>
       </c>
       <c r="I42" t="n">
         <v>34.73359259140783</v>
       </c>
       <c r="J42" t="n">
-        <v>34.73359259140783</v>
+        <v>68.48151751256836</v>
       </c>
       <c r="K42" t="n">
-        <v>219.0197848043488</v>
+        <v>252.7677097255093</v>
       </c>
       <c r="L42" t="n">
         <v>307.7905054719724</v>
@@ -7518,22 +7518,22 @@
         <v>1736.679629570392</v>
       </c>
       <c r="T42" t="n">
-        <v>1736.679629570392</v>
+        <v>1537.440425208661</v>
       </c>
       <c r="U42" t="n">
-        <v>1509.771912650479</v>
+        <v>1533.421428151777</v>
       </c>
       <c r="V42" t="n">
-        <v>1489.452710450174</v>
+        <v>1522.058904540405</v>
       </c>
       <c r="W42" t="n">
-        <v>1236.938218783508</v>
+        <v>1269.544412873739</v>
       </c>
       <c r="X42" t="n">
-        <v>1030.411320189085</v>
+        <v>1063.017514279316</v>
       </c>
       <c r="Y42" t="n">
-        <v>824.6828844127357</v>
+        <v>866.1347563470762</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>219.5499965800904</v>
+        <v>55.13620844864853</v>
       </c>
       <c r="C43" t="n">
-        <v>185.2442658383971</v>
+        <v>55.13620844864853</v>
       </c>
       <c r="D43" t="n">
-        <v>34.73359259140783</v>
+        <v>55.13620844864853</v>
       </c>
       <c r="E43" t="n">
-        <v>34.73359259140783</v>
+        <v>55.13620844864853</v>
       </c>
       <c r="F43" t="n">
-        <v>34.73359259140783</v>
+        <v>55.13620844864853</v>
       </c>
       <c r="G43" t="n">
-        <v>34.73359259140783</v>
+        <v>55.13620844864853</v>
       </c>
       <c r="H43" t="n">
-        <v>34.73359259140783</v>
+        <v>55.13620844864853</v>
       </c>
       <c r="I43" t="n">
         <v>34.73359259140783</v>
@@ -7570,49 +7570,49 @@
         <v>34.73359259140783</v>
       </c>
       <c r="K43" t="n">
-        <v>47.27743033770729</v>
+        <v>47.2774303377073</v>
       </c>
       <c r="L43" t="n">
         <v>119.1328390972257</v>
       </c>
       <c r="M43" t="n">
-        <v>205.4871923847751</v>
+        <v>205.4871923847752</v>
       </c>
       <c r="N43" t="n">
         <v>294.9294940574572</v>
       </c>
       <c r="O43" t="n">
-        <v>362.2073397527786</v>
+        <v>362.2073397527787</v>
       </c>
       <c r="P43" t="n">
-        <v>396.5526779578248</v>
+        <v>396.5526779578249</v>
       </c>
       <c r="Q43" t="n">
-        <v>396.5526779578248</v>
+        <v>396.5526779578249</v>
       </c>
       <c r="R43" t="n">
-        <v>396.5526779578248</v>
+        <v>232.138889826383</v>
       </c>
       <c r="S43" t="n">
-        <v>396.5526779578248</v>
+        <v>232.138889826383</v>
       </c>
       <c r="T43" t="n">
-        <v>389.822059878804</v>
+        <v>225.4082717473622</v>
       </c>
       <c r="U43" t="n">
-        <v>323.7821075835965</v>
+        <v>159.3683194521547</v>
       </c>
       <c r="V43" t="n">
-        <v>291.1795637426455</v>
+        <v>126.7657756112037</v>
       </c>
       <c r="W43" t="n">
-        <v>225.085882709294</v>
+        <v>60.67209457785221</v>
       </c>
       <c r="X43" t="n">
-        <v>219.5499965800904</v>
+        <v>55.13620844864853</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.5499965800904</v>
+        <v>55.13620844864853</v>
       </c>
     </row>
     <row r="44">
@@ -7622,67 +7622,67 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>981.320985846303</v>
+        <v>981.3209858463033</v>
       </c>
       <c r="C44" t="n">
-        <v>833.5176898720149</v>
+        <v>833.5176898720154</v>
       </c>
       <c r="D44" t="n">
-        <v>696.1996089728223</v>
+        <v>696.1996089728227</v>
       </c>
       <c r="E44" t="n">
-        <v>532.1004139315193</v>
+        <v>532.1004139315196</v>
       </c>
       <c r="F44" t="n">
-        <v>343.58119088491</v>
+        <v>343.5811908849102</v>
       </c>
       <c r="G44" t="n">
-        <v>147.9566338272183</v>
+        <v>147.9566338272184</v>
       </c>
       <c r="H44" t="n">
-        <v>34.73359259140781</v>
+        <v>34.73359259140783</v>
       </c>
       <c r="I44" t="n">
-        <v>34.73359259140781</v>
+        <v>65.61186955911242</v>
       </c>
       <c r="J44" t="n">
-        <v>78.33026553698986</v>
+        <v>109.2085425046945</v>
       </c>
       <c r="K44" t="n">
-        <v>265.9469697424138</v>
+        <v>296.8252467101184</v>
       </c>
       <c r="L44" t="n">
-        <v>555.0221265031489</v>
+        <v>581.5494366039277</v>
       </c>
       <c r="M44" t="n">
-        <v>887.0449420961438</v>
+        <v>913.5722521969226</v>
       </c>
       <c r="N44" t="n">
-        <v>1208.92305897233</v>
+        <v>1235.450369073109</v>
       </c>
       <c r="O44" t="n">
-        <v>1466.735085986926</v>
+        <v>1493.262396087704</v>
       </c>
       <c r="P44" t="n">
-        <v>1649.832893183828</v>
+        <v>1676.360203284606</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.152319469613</v>
+        <v>1736.679629570392</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.152319469613</v>
+        <v>1736.679629570392</v>
       </c>
       <c r="S44" t="n">
-        <v>1736.67962957039</v>
+        <v>1736.679629570392</v>
       </c>
       <c r="T44" t="n">
-        <v>1736.67962957039</v>
+        <v>1736.679629570392</v>
       </c>
       <c r="U44" t="n">
-        <v>1705.592961679521</v>
+        <v>1705.592961679522</v>
       </c>
       <c r="V44" t="n">
-        <v>1596.629942630913</v>
+        <v>1596.629942630914</v>
       </c>
       <c r="W44" t="n">
         <v>1465.447837240856</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>484.8872182129924</v>
+        <v>696.4596885678427</v>
       </c>
       <c r="C45" t="n">
-        <v>484.8872182129924</v>
+        <v>523.7065734896599</v>
       </c>
       <c r="D45" t="n">
-        <v>337.2989115719363</v>
+        <v>523.7065734896599</v>
       </c>
       <c r="E45" t="n">
-        <v>179.689382574791</v>
+        <v>366.0970444925147</v>
       </c>
       <c r="F45" t="n">
-        <v>34.73359259140781</v>
+        <v>221.1412545091315</v>
       </c>
       <c r="G45" t="n">
-        <v>34.73359259140781</v>
+        <v>221.1412545091315</v>
       </c>
       <c r="H45" t="n">
-        <v>34.73359259140781</v>
+        <v>112.311721719519</v>
       </c>
       <c r="I45" t="n">
-        <v>34.73359259140781</v>
+        <v>34.73359259140783</v>
       </c>
       <c r="J45" t="n">
-        <v>68.48151751256833</v>
+        <v>68.48151751256836</v>
       </c>
       <c r="K45" t="n">
         <v>252.7677097255093</v>
       </c>
       <c r="L45" t="n">
-        <v>561.4128444476751</v>
+        <v>252.7677097255093</v>
       </c>
       <c r="M45" t="n">
-        <v>974.387352892652</v>
+        <v>665.7422181704862</v>
       </c>
       <c r="N45" t="n">
-        <v>1033.807390321204</v>
+        <v>1095.570426489158</v>
       </c>
       <c r="O45" t="n">
-        <v>1368.056200594608</v>
+        <v>1429.819236762562</v>
       </c>
       <c r="P45" t="n">
-        <v>1619.893797655975</v>
+        <v>1619.893797655976</v>
       </c>
       <c r="Q45" t="n">
-        <v>1736.67962957039</v>
+        <v>1736.679629570392</v>
       </c>
       <c r="R45" t="n">
-        <v>1658.699128276494</v>
+        <v>1658.699128276495</v>
       </c>
       <c r="S45" t="n">
-        <v>1493.31739943753</v>
+        <v>1658.699128276495</v>
       </c>
       <c r="T45" t="n">
-        <v>1493.31739943753</v>
+        <v>1658.699128276495</v>
       </c>
       <c r="U45" t="n">
-        <v>1266.409682517617</v>
+        <v>1539.634589338213</v>
       </c>
       <c r="V45" t="n">
-        <v>1032.158439043218</v>
+        <v>1528.272065726842</v>
       </c>
       <c r="W45" t="n">
-        <v>857.6582051109025</v>
+        <v>1275.757574060175</v>
       </c>
       <c r="X45" t="n">
-        <v>857.6582051109025</v>
+        <v>1069.230675465753</v>
       </c>
       <c r="Y45" t="n">
-        <v>651.9297693345529</v>
+        <v>863.5022396894032</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.73359259140781</v>
+        <v>219.5499965800901</v>
       </c>
       <c r="C46" t="n">
-        <v>34.73359259140781</v>
+        <v>219.5499965800901</v>
       </c>
       <c r="D46" t="n">
-        <v>34.73359259140781</v>
+        <v>219.5499965800901</v>
       </c>
       <c r="E46" t="n">
-        <v>34.73359259140781</v>
+        <v>219.5499965800901</v>
       </c>
       <c r="F46" t="n">
-        <v>34.73359259140781</v>
+        <v>107.6000537211319</v>
       </c>
       <c r="G46" t="n">
-        <v>34.73359259140781</v>
+        <v>107.6000537211319</v>
       </c>
       <c r="H46" t="n">
-        <v>34.73359259140781</v>
+        <v>107.6000537211319</v>
       </c>
       <c r="I46" t="n">
-        <v>34.73359259140781</v>
+        <v>107.6000537211319</v>
       </c>
       <c r="J46" t="n">
-        <v>34.73359259140781</v>
+        <v>34.73359259140783</v>
       </c>
       <c r="K46" t="n">
-        <v>47.27743033770727</v>
+        <v>47.2774303377073</v>
       </c>
       <c r="L46" t="n">
-        <v>119.1328390972256</v>
+        <v>119.1328390972257</v>
       </c>
       <c r="M46" t="n">
-        <v>205.4871923847751</v>
+        <v>205.4871923847752</v>
       </c>
       <c r="N46" t="n">
         <v>294.9294940574572</v>
       </c>
       <c r="O46" t="n">
-        <v>362.2073397527786</v>
+        <v>362.2073397527787</v>
       </c>
       <c r="P46" t="n">
-        <v>396.5526779578248</v>
+        <v>396.5526779578249</v>
       </c>
       <c r="Q46" t="n">
-        <v>396.5526779578248</v>
+        <v>396.5526779578249</v>
       </c>
       <c r="R46" t="n">
-        <v>396.5526779578248</v>
+        <v>396.5526779578249</v>
       </c>
       <c r="S46" t="n">
-        <v>396.5526779578248</v>
+        <v>396.5526779578249</v>
       </c>
       <c r="T46" t="n">
-        <v>389.8220598788041</v>
+        <v>389.822059878804</v>
       </c>
       <c r="U46" t="n">
-        <v>323.7821075835967</v>
+        <v>323.7821075835965</v>
       </c>
       <c r="V46" t="n">
-        <v>106.3631597539629</v>
+        <v>291.1795637426454</v>
       </c>
       <c r="W46" t="n">
-        <v>40.26947872061146</v>
+        <v>225.0858827092939</v>
       </c>
       <c r="X46" t="n">
-        <v>34.73359259140781</v>
+        <v>219.5499965800901</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.73359259140781</v>
+        <v>219.5499965800901</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>173.6518838657823</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8699,7 +8699,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
-        <v>452.6322054752877</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
         <v>396.0321885132552</v>
@@ -8769,16 +8769,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>88.89617759112119</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>73.91119676997559</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>385.5098347629682</v>
+        <v>393.159441424393</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8787,7 +8787,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.5148924630448</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8939,10 +8939,10 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
-        <v>396.0321885132552</v>
+        <v>393.8235926000807</v>
       </c>
       <c r="P14" t="n">
-        <v>332.462060585166</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
         <v>220.8075902863009</v>
@@ -9015,13 +9015,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>480.510226690084</v>
+        <v>115.4854921304484</v>
       </c>
       <c r="O15" t="n">
-        <v>71.99175116557252</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>303.8016057081234</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
         <v>218.4803792452831</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>173.6518838657808</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9176,7 +9176,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O17" t="n">
-        <v>396.0321885132552</v>
+        <v>393.8235926000807</v>
       </c>
       <c r="P17" t="n">
         <v>334.6706564983419</v>
@@ -9240,10 +9240,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>97.04586370234789</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>88.89617759112119</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,7 +9252,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>81.39667907876938</v>
+        <v>301.633161032409</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9401,7 +9401,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1112290740114</v>
+        <v>334.9026331608369</v>
       </c>
       <c r="L20" t="n">
         <v>434.3676631324684</v>
@@ -9419,7 +9419,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>218.5989943731258</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9483,22 +9483,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9073094596194</v>
+        <v>73.91119676997559</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>480.5102266900842</v>
+        <v>393.159441424393</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>76.81986821243709</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.5148924630448</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9714,16 +9714,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>97.04586370234789</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>88.89617759112119</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>341.251942623417</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
         <v>481.0680098416259</v>
@@ -9732,10 +9732,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>76.81986821243709</v>
+        <v>271.9405132717304</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5148924630447</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,19 +10662,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>97.04586370234789</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>88.89617759112119</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>326.4131930017933</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>481.0680098416259</v>
+        <v>83.60527499194538</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10683,7 +10683,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.5148924630448</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10908,7 +10908,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>341.251942623417</v>
+        <v>86.87053145031945</v>
       </c>
       <c r="N39" t="n">
         <v>481.0680098416259</v>
@@ -10917,7 +10917,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>76.81986821243709</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11136,13 +11136,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>97.04586370234789</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
-        <v>163.5785913837368</v>
+        <v>129.4897783320595</v>
       </c>
       <c r="M42" t="n">
         <v>484.3332662999999</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.5148924630448</v>
+        <v>100.5148924630447</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11379,19 +11379,19 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>385.6739591155975</v>
+        <v>73.91119676997559</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>114.7954537472016</v>
+        <v>488.9451213129791</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>331.2012793855346</v>
+        <v>268.8143741653802</v>
       </c>
       <c r="Q45" t="n">
         <v>218.4803792452831</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.5317519273725</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.80043761492</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.4200746905758</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9333776912648</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>170.5062007468862</v>
+        <v>280.0156585370464</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1434860874901</v>
+        <v>292.1434860874902</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5659854238274</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.73708397410563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.67991187231662</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.6769410671468</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.5024136872132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5317519273724</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>244.80043761492</v>
       </c>
       <c r="D14" t="n">
-        <v>234.4200746905758</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>260.9333776912648</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.1434860874901</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.5659854238274</v>
       </c>
       <c r="I14" t="n">
-        <v>1.827590054570684</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>98.475174600375</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>129.2509758123363</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>60.95720100684113</v>
       </c>
       <c r="W14" t="n">
-        <v>228.345458936532</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>248.6769410671468</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.164644854503924</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.164644854502574</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,61 +23972,61 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>2.164644854502285</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.110311925207498e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>928408.6809348994</v>
+        <v>928408.6809348995</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>928408.6809348994</v>
+        <v>928408.6809348995</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1057823.095629406</v>
+        <v>1057823.095629407</v>
       </c>
     </row>
     <row r="8">
@@ -26317,22 +26317,22 @@
         <v>507597.7360973376</v>
       </c>
       <c r="D2" t="n">
-        <v>507597.7360973375</v>
+        <v>507597.7360973377</v>
       </c>
       <c r="E2" t="n">
-        <v>436695.0422503195</v>
+        <v>436695.0422503196</v>
       </c>
       <c r="F2" t="n">
-        <v>436695.0422503199</v>
+        <v>436695.0422503198</v>
       </c>
       <c r="G2" t="n">
+        <v>508591.9393028234</v>
+      </c>
+      <c r="H2" t="n">
         <v>508591.9393028235</v>
       </c>
-      <c r="H2" t="n">
-        <v>508591.9393028237</v>
-      </c>
       <c r="I2" t="n">
-        <v>508699.6303843352</v>
+        <v>508699.6303843354</v>
       </c>
       <c r="J2" t="n">
         <v>508699.6303843351</v>
@@ -26341,19 +26341,19 @@
         <v>508699.6303843351</v>
       </c>
       <c r="L2" t="n">
-        <v>508699.6303843351</v>
+        <v>508699.630384335</v>
       </c>
       <c r="M2" t="n">
-        <v>508699.6303843354</v>
+        <v>508699.6303843353</v>
       </c>
       <c r="N2" t="n">
         <v>508699.6303843353</v>
       </c>
       <c r="O2" t="n">
-        <v>508699.6303843358</v>
+        <v>508699.6303843357</v>
       </c>
       <c r="P2" t="n">
-        <v>508699.6303843357</v>
+        <v>508699.6303843355</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330106.2472205414</v>
+        <v>330106.2472205415</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80818.10596016851</v>
+        <v>80818.10596016848</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>148.3262534411163</v>
+        <v>148.326253441071</v>
       </c>
       <c r="J3" t="n">
-        <v>110158.2264013283</v>
+        <v>110158.2264013282</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.549416443664987e-11</v>
       </c>
       <c r="L3" t="n">
         <v>80818.10596016851</v>
       </c>
       <c r="M3" t="n">
-        <v>97360.11769635465</v>
+        <v>97360.11769635459</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32705.78164981528</v>
+        <v>32705.78164981522</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,16 +26430,16 @@
         <v>295362.2723299011</v>
       </c>
       <c r="G4" t="n">
-        <v>360759.6065108589</v>
+        <v>360759.6065108588</v>
       </c>
       <c r="H4" t="n">
         <v>360759.6065108589</v>
       </c>
       <c r="I4" t="n">
-        <v>360815.4046247122</v>
+        <v>360815.4046247121</v>
       </c>
       <c r="J4" t="n">
-        <v>359395.561527426</v>
+        <v>359395.5615274258</v>
       </c>
       <c r="K4" t="n">
         <v>359395.5615274259</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>39012.36619119053</v>
+        <v>39012.36619119056</v>
       </c>
       <c r="F5" t="n">
-        <v>39012.36619119053</v>
+        <v>39012.36619119056</v>
       </c>
       <c r="G5" t="n">
-        <v>47505.23787864728</v>
+        <v>47505.23787864731</v>
       </c>
       <c r="H5" t="n">
-        <v>47505.2378786473</v>
+        <v>47505.23787864731</v>
       </c>
       <c r="I5" t="n">
-        <v>47539.15109426103</v>
+        <v>47539.15109426104</v>
       </c>
       <c r="J5" t="n">
-        <v>58684.17216923913</v>
+        <v>58684.17216923911</v>
       </c>
       <c r="K5" t="n">
         <v>58684.17216923911</v>
       </c>
       <c r="L5" t="n">
-        <v>58684.17216923911</v>
+        <v>58684.17216923914</v>
       </c>
       <c r="M5" t="n">
-        <v>47539.15109426105</v>
+        <v>47539.15109426104</v>
       </c>
       <c r="N5" t="n">
-        <v>47539.15109426103</v>
+        <v>47539.15109426104</v>
       </c>
       <c r="O5" t="n">
         <v>47803.91723774148</v>
       </c>
       <c r="P5" t="n">
-        <v>47803.91723774147</v>
+        <v>47803.91723774148</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46654.54632300777</v>
+        <v>46650.13874585977</v>
       </c>
       <c r="C6" t="n">
-        <v>46654.54632300771</v>
+        <v>46650.13874585972</v>
       </c>
       <c r="D6" t="n">
-        <v>46654.54632300771</v>
+        <v>46650.13874585989</v>
       </c>
       <c r="E6" t="n">
-        <v>-227785.8434913134</v>
+        <v>-228073.8618438496</v>
       </c>
       <c r="F6" t="n">
-        <v>102320.4037292283</v>
+        <v>102032.3853766921</v>
       </c>
       <c r="G6" t="n">
-        <v>19508.98895314883</v>
+        <v>19508.55818882281</v>
       </c>
       <c r="H6" t="n">
-        <v>100327.0949133175</v>
+        <v>100326.6641489913</v>
       </c>
       <c r="I6" t="n">
-        <v>100196.7484119209</v>
+        <v>100196.7484119211</v>
       </c>
       <c r="J6" t="n">
-        <v>-19538.32971365836</v>
+        <v>-19538.32971365793</v>
       </c>
       <c r="K6" t="n">
-        <v>90619.89668767012</v>
+        <v>90619.89668767006</v>
       </c>
       <c r="L6" t="n">
-        <v>9801.790727501539</v>
+        <v>9801.790727501393</v>
       </c>
       <c r="M6" t="n">
-        <v>2984.956969007486</v>
+        <v>2984.956969007493</v>
       </c>
       <c r="N6" t="n">
         <v>100345.0746653621</v>
@@ -26561,7 +26561,7 @@
         <v>67551.43181755515</v>
       </c>
       <c r="P6" t="n">
-        <v>100257.2134673704</v>
+        <v>100257.2134673702</v>
       </c>
     </row>
   </sheetData>
@@ -26698,16 +26698,16 @@
         <v>122.1846580640226</v>
       </c>
       <c r="G2" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="H2" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="I2" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="J2" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="K2" t="n">
         <v>142.0827739214496</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>425.7350127697027</v>
+        <v>425.7350127697032</v>
       </c>
       <c r="F4" t="n">
-        <v>425.7350127697027</v>
+        <v>425.7350127697032</v>
       </c>
       <c r="G4" t="n">
-        <v>425.7350127697027</v>
+        <v>425.7350127697032</v>
       </c>
       <c r="H4" t="n">
-        <v>425.735012769703</v>
+        <v>425.7350127697032</v>
       </c>
       <c r="I4" t="n">
-        <v>426.2927959212446</v>
+        <v>426.2927959212447</v>
       </c>
       <c r="J4" t="n">
-        <v>721.7710534938897</v>
+        <v>721.7710534938894</v>
       </c>
       <c r="K4" t="n">
         <v>721.7710534938894</v>
       </c>
       <c r="L4" t="n">
-        <v>721.7710534938894</v>
+        <v>721.7710534938898</v>
       </c>
       <c r="M4" t="n">
         <v>426.2927959212446</v>
@@ -26829,7 +26829,7 @@
         <v>434.1699073925979</v>
       </c>
       <c r="P4" t="n">
-        <v>434.1699073925976</v>
+        <v>434.1699073925979</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.06014147123895</v>
+        <v>41.06014147123888</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.936770554581234e-14</v>
       </c>
       <c r="L2" t="n">
         <v>101.0226324502106</v>
       </c>
       <c r="M2" t="n">
-        <v>81.12451659278378</v>
+        <v>81.12451659278366</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.51268362140331</v>
+        <v>38.51268362140324</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>425.7350127697027</v>
+        <v>425.7350127697032</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5577831515416847</v>
+        <v>0.5577831515415141</v>
       </c>
       <c r="J4" t="n">
-        <v>295.478257572645</v>
+        <v>295.4782575726447</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>130.2567551970579</v>
+        <v>130.2567551970581</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.06014147123895</v>
+        <v>41.06014147123888</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.936770554581234e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>425.7350127697027</v>
+        <v>425.7350127697032</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,7 +28169,7 @@
         <v>122.1846580640226</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>122.1846580640226</v>
       </c>
       <c r="D12" t="n">
         <v>122.1846580640226</v>
@@ -28178,16 +28178,16 @@
         <v>122.1846580640226</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>122.1846580640226</v>
       </c>
       <c r="G12" t="n">
         <v>122.1846580640226</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7412374617164</v>
       </c>
       <c r="I12" t="n">
-        <v>76.80234783683004</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,16 +28214,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.20069628095735</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>39.95346444662712</v>
       </c>
       <c r="T12" t="n">
-        <v>115.8763158545805</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>122.1846580640226</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>122.1846580640226</v>
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>122.1846580640226</v>
       </c>
       <c r="C15" t="n">
         <v>122.1846580640226</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>122.1846580640226</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.80234783683004</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,22 +28451,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.20069628095735</v>
+        <v>70.89235407151345</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>122.1846580640226</v>
       </c>
-      <c r="T15" t="n">
-        <v>70.49400562738801</v>
-      </c>
       <c r="U15" t="n">
-        <v>122.1846580640226</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>122.1846580640226</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="C17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="D17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="E17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="F17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="G17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="H17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="I17" t="n">
         <v>184.9217420381282</v>
@@ -28618,19 +28618,19 @@
         <v>220.6598326643976</v>
       </c>
       <c r="U17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="V17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="W17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="X17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
     </row>
     <row r="18">
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.6366732936056</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>109.4188954533059</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.741442994427</v>
       </c>
       <c r="H18" t="n">
         <v>107.7412374617164</v>
       </c>
       <c r="I18" t="n">
-        <v>76.80234783683004</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.20069628095735</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7279115505747</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,10 +28700,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>59.98014736221278</v>
       </c>
       <c r="R19" t="n">
-        <v>162.7696502501275</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>218.2406640270355</v>
       </c>
       <c r="T19" t="n">
-        <v>223.2072905142333</v>
+        <v>190.2714115663869</v>
       </c>
       <c r="U19" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="V19" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="W19" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="X19" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.04314466979429</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="C20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="D20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="E20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="F20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="G20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="H20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="I20" t="n">
         <v>184.9217420381282</v>
@@ -28855,19 +28855,19 @@
         <v>220.6598326643976</v>
       </c>
       <c r="U20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="V20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="W20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="X20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>24.41287971569218</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>135.741442994427</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7412374617164</v>
       </c>
       <c r="I21" t="n">
-        <v>76.80234783683004</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,22 +28928,22 @@
         <v>77.20069628095735</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7279115505747</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2468123181131</v>
       </c>
       <c r="U21" t="n">
-        <v>121.8459895710022</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>223.2072905142333</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -29010,19 +29010,19 @@
         <v>218.2406640270355</v>
       </c>
       <c r="T22" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="U22" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="V22" t="n">
-        <v>27.50176131625935</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="W22" t="n">
-        <v>223.2072905142333</v>
+        <v>27.50176131625943</v>
       </c>
       <c r="X22" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="C23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="D23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="E23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="F23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="G23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="H23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="I23" t="n">
         <v>184.9217420381282</v>
@@ -29092,19 +29092,19 @@
         <v>220.6598326643976</v>
       </c>
       <c r="U23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="V23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="W23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="X23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
     </row>
     <row r="24">
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>77.69127202925851</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29165,7 +29165,7 @@
         <v>77.20069628095735</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7279115505747</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>223.2072905142333</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>223.2072905142333</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>0.4651964208554489</v>
       </c>
     </row>
     <row r="25">
@@ -29247,22 +29247,22 @@
         <v>218.2406640270355</v>
       </c>
       <c r="T25" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="U25" t="n">
-        <v>27.50176131625938</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="V25" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="W25" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="X25" t="n">
-        <v>223.2072905142333</v>
+        <v>223.2072905142332</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>23.04314466979434</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="C26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="D26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="E26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="F26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="G26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="H26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="I26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="J26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214494</v>
       </c>
       <c r="K26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="L26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="M26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="N26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="O26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="P26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="R26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="S26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="T26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="U26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="V26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="W26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="X26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
     </row>
     <row r="27">
@@ -29351,25 +29351,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>25.83749829792606</v>
       </c>
       <c r="C27" t="n">
-        <v>125.061112398151</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>142.0827739214496</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7412374617164</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29399,19 +29399,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.20069628095735</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="C28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="D28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="E28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="F28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="G28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="I28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="J28" t="n">
-        <v>72.13779651842681</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="K28" t="n">
-        <v>142.0827739214496</v>
+        <v>24.33197012366387</v>
       </c>
       <c r="L28" t="n">
-        <v>142.0827739214496</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="O28" t="n">
-        <v>94.27694752668481</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="P28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="Q28" t="n">
         <v>59.98014736221278</v>
       </c>
       <c r="R28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="S28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="T28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="U28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="V28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="W28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="X28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.0827739214496</v>
+        <v>142.0827739214495</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>142.0827739214496</v>
       </c>
       <c r="J29" t="n">
-        <v>142.0827739214491</v>
+        <v>142.0827739214496</v>
       </c>
       <c r="K29" t="n">
         <v>142.0827739214496</v>
@@ -29591,13 +29591,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>142.0827739214496</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>142.0827739214496</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>107.7412374617164</v>
       </c>
       <c r="I30" t="n">
-        <v>76.80234783683004</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,22 +29636,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.20069628095735</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>142.0827739214496</v>
       </c>
-      <c r="T30" t="n">
-        <v>48.25876456132079</v>
-      </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>142.0827739214496</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>60.179034757659</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29694,22 +29694,22 @@
         <v>72.13779651842681</v>
       </c>
       <c r="K31" t="n">
-        <v>142.0827739214496</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>142.0827739214496</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>142.0827739214496</v>
       </c>
       <c r="N31" t="n">
-        <v>12.17432096744869</v>
+        <v>142.0827739214496</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>142.0827739214496</v>
+        <v>12.17432096744853</v>
       </c>
       <c r="Q31" t="n">
         <v>142.0827739214496</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>142.0827739214496</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29837,13 +29837,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>142.0827739214496</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7412374617164</v>
+        <v>91.11792438254496</v>
       </c>
       <c r="I33" t="n">
         <v>76.80234783683004</v>
@@ -29873,19 +29873,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.20069628095735</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>142.0827739214496</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>142.0827739214496</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>48.2587645613207</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29928,28 +29928,28 @@
         <v>142.0827739214496</v>
       </c>
       <c r="J34" t="n">
-        <v>72.13779651842681</v>
+        <v>142.0827739214496</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>142.0827739214496</v>
-      </c>
-      <c r="M34" t="n">
-        <v>94.27694752668532</v>
       </c>
       <c r="N34" t="n">
         <v>142.0827739214496</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>84.31211748587488</v>
       </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>142.0827739214496</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>59.98014736221278</v>
       </c>
       <c r="R34" t="n">
         <v>142.0827739214496</v>
@@ -30065,25 +30065,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.741442994427</v>
+        <v>69.1687822640701</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.80234783683004</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>163.7279115505747</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2468123181131</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30125,13 +30125,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>223.2072905142333</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.70574298335177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30144,13 +30144,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.98014736221278</v>
+        <v>11.24924233743796</v>
       </c>
       <c r="R37" t="n">
         <v>162.7696502501275</v>
@@ -30207,7 +30207,7 @@
         <v>223.2072905142333</v>
       </c>
       <c r="X37" t="n">
-        <v>194.8383142474613</v>
+        <v>223.2072905142333</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -30299,16 +30299,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>20.10716485787253</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>122.4710198754477</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>107.7412374617164</v>
       </c>
       <c r="I39" t="n">
-        <v>76.80234783683004</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.20069628095735</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>163.7279115505747</v>
@@ -30365,10 +30365,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -30381,10 +30381,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>120.6365902477478</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -30447,7 +30447,7 @@
         <v>223.2072905142333</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>23.04314466979426</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>220.6598326643976</v>
       </c>
       <c r="I41" t="n">
-        <v>184.9217420381282</v>
+        <v>216.1119207933854</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>31.19017875525756</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>135.741442994427</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7412374617164</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.80234783683004</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,13 +30590,13 @@
         <v>163.7279115505747</v>
       </c>
       <c r="T42" t="n">
-        <v>197.2468123181131</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>220.6598326643976</v>
       </c>
       <c r="V42" t="n">
-        <v>211.7927208613534</v>
+        <v>220.6598326643976</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>8.757221065668659</v>
       </c>
     </row>
     <row r="43">
@@ -30618,10 +30618,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>133.373879496926</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -30636,7 +30636,7 @@
         <v>159.5338244398868</v>
       </c>
       <c r="I43" t="n">
-        <v>146.6546419320138</v>
+        <v>126.4560522333455</v>
       </c>
       <c r="J43" t="n">
         <v>72.13779651842681</v>
@@ -30663,7 +30663,7 @@
         <v>59.98014736221278</v>
       </c>
       <c r="R43" t="n">
-        <v>162.7696502501275</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>218.2406640270355</v>
@@ -30715,7 +30715,7 @@
         <v>220.6598326643976</v>
       </c>
       <c r="I44" t="n">
-        <v>184.9217420381282</v>
+        <v>216.1119207933854</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>4.394916027197894</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>108.7704504599466</v>
       </c>
       <c r="S44" t="n">
-        <v>220.6598326643976</v>
+        <v>193.8645699363392</v>
       </c>
       <c r="T44" t="n">
         <v>220.6598326643976</v>
@@ -30776,10 +30776,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30791,10 +30791,10 @@
         <v>135.741442994427</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7412374617164</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>76.80234783683004</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,22 +30824,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7279115505747</v>
       </c>
       <c r="T45" t="n">
         <v>197.2468123181131</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>106.7647462018141</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.6598326643976</v>
       </c>
       <c r="W45" t="n">
-        <v>77.23411515700761</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30864,7 +30864,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>35.32857797943586</v>
       </c>
       <c r="G46" t="n">
         <v>167.6533647659022</v>
@@ -30876,7 +30876,7 @@
         <v>146.6546419320138</v>
       </c>
       <c r="J46" t="n">
-        <v>72.13779651842681</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30912,7 +30912,7 @@
         <v>220.6598326643976</v>
       </c>
       <c r="V46" t="n">
-        <v>37.6915927156017</v>
+        <v>220.6598326643976</v>
       </c>
       <c r="W46" t="n">
         <v>220.6598326643976</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H11" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I11" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J11" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K11" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L11" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M11" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N11" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O11" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P11" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R11" t="n">
         <v>33.08037224093047</v>
@@ -31789,10 +31789,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T11" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H12" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I12" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J12" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K12" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L12" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M12" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N12" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O12" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P12" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q12" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R12" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S12" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T12" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U12" t="n">
         <v>0.01853731648785025</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H13" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I13" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J13" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K13" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L13" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M13" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N13" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O13" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P13" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R13" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S13" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T13" t="n">
         <v>1.009321428879452</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H14" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I14" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J14" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K14" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L14" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M14" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N14" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O14" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P14" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R14" t="n">
         <v>33.08037224093047</v>
@@ -32026,10 +32026,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T14" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H15" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I15" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J15" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K15" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L15" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M15" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N15" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O15" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P15" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q15" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R15" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S15" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T15" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U15" t="n">
         <v>0.01853731648785025</v>
@@ -32145,43 +32145,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H16" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I16" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J16" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K16" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L16" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M16" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N16" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O16" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P16" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R16" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S16" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T16" t="n">
         <v>1.009321428879452</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H17" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I17" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J17" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K17" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L17" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M17" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N17" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O17" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P17" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R17" t="n">
         <v>33.08037224093047</v>
@@ -32263,10 +32263,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T17" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H18" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I18" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J18" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K18" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L18" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M18" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N18" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O18" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P18" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q18" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R18" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S18" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T18" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U18" t="n">
         <v>0.01853731648785025</v>
@@ -32382,43 +32382,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H19" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I19" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J19" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K19" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L19" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M19" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N19" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O19" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P19" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R19" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S19" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T19" t="n">
         <v>1.009321428879452</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H20" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I20" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J20" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K20" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L20" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M20" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N20" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O20" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P20" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R20" t="n">
         <v>33.08037224093047</v>
@@ -32500,10 +32500,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T20" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H21" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I21" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J21" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K21" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L21" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M21" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N21" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O21" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P21" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q21" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R21" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S21" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T21" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U21" t="n">
         <v>0.01853731648785025</v>
@@ -32619,43 +32619,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H22" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I22" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J22" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K22" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L22" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M22" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N22" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O22" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P22" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R22" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S22" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T22" t="n">
         <v>1.009321428879452</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H23" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I23" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J23" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K23" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L23" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M23" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N23" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O23" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P23" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R23" t="n">
         <v>33.08037224093047</v>
@@ -32737,10 +32737,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T23" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H24" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I24" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J24" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K24" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L24" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M24" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N24" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O24" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P24" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q24" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R24" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S24" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T24" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U24" t="n">
         <v>0.01853731648785025</v>
@@ -32856,43 +32856,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H25" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I25" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J25" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K25" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L25" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M25" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N25" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O25" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P25" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R25" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S25" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T25" t="n">
         <v>1.009321428879452</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H26" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I26" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J26" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K26" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L26" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M26" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N26" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O26" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P26" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R26" t="n">
         <v>33.08037224093047</v>
@@ -32974,10 +32974,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T26" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H27" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I27" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J27" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K27" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L27" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M27" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N27" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O27" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P27" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q27" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R27" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S27" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T27" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U27" t="n">
         <v>0.01853731648785025</v>
@@ -33093,43 +33093,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H28" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I28" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J28" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K28" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L28" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M28" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N28" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O28" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P28" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R28" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S28" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T28" t="n">
         <v>1.009321428879452</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H29" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I29" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J29" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K29" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L29" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M29" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N29" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O29" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P29" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R29" t="n">
         <v>33.08037224093047</v>
@@ -33211,10 +33211,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T29" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H30" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I30" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J30" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K30" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L30" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M30" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N30" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O30" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P30" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q30" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R30" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S30" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T30" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U30" t="n">
         <v>0.01853731648785025</v>
@@ -33330,43 +33330,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H31" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I31" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J31" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K31" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L31" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M31" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N31" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O31" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P31" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R31" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S31" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T31" t="n">
         <v>1.009321428879452</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H32" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I32" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J32" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K32" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L32" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M32" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N32" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O32" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P32" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R32" t="n">
         <v>33.08037224093047</v>
@@ -33448,10 +33448,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T32" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H33" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I33" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J33" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K33" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L33" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M33" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N33" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O33" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P33" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q33" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R33" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S33" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T33" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U33" t="n">
         <v>0.01853731648785025</v>
@@ -33567,43 +33567,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H34" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I34" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J34" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K34" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L34" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M34" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N34" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O34" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P34" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R34" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S34" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T34" t="n">
         <v>1.009321428879452</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H35" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I35" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J35" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K35" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L35" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M35" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N35" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O35" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P35" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R35" t="n">
         <v>33.08037224093047</v>
@@ -33685,10 +33685,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T35" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H36" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I36" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J36" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K36" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L36" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M36" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N36" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O36" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P36" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q36" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R36" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S36" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T36" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U36" t="n">
         <v>0.01853731648785025</v>
@@ -33804,43 +33804,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H37" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I37" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J37" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K37" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L37" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M37" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N37" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O37" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P37" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R37" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S37" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T37" t="n">
         <v>1.009321428879452</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H38" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I38" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J38" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K38" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L38" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M38" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N38" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O38" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P38" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R38" t="n">
         <v>33.08037224093047</v>
@@ -33922,10 +33922,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T38" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H39" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I39" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J39" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K39" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L39" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M39" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N39" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O39" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P39" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q39" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R39" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S39" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T39" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U39" t="n">
         <v>0.01853731648785025</v>
@@ -34041,43 +34041,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H40" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I40" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J40" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K40" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L40" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M40" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N40" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O40" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P40" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R40" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S40" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T40" t="n">
         <v>1.009321428879452</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H41" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I41" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J41" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K41" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L41" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M41" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N41" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O41" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P41" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R41" t="n">
         <v>33.08037224093047</v>
@@ -34159,10 +34159,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T41" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H42" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I42" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J42" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K42" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L42" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M42" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N42" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O42" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P42" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q42" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R42" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S42" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T42" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U42" t="n">
         <v>0.01853731648785025</v>
@@ -34278,43 +34278,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H43" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I43" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J43" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K43" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L43" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M43" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N43" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O43" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P43" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R43" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S43" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T43" t="n">
         <v>1.009321428879452</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5266212523181572</v>
+        <v>0.5266212523181573</v>
       </c>
       <c r="H44" t="n">
-        <v>5.393259900303328</v>
+        <v>5.393259900303329</v>
       </c>
       <c r="I44" t="n">
-        <v>20.30256582999577</v>
+        <v>20.30256582999578</v>
       </c>
       <c r="J44" t="n">
-        <v>44.69632051393823</v>
+        <v>44.69632051393824</v>
       </c>
       <c r="K44" t="n">
-        <v>66.98819812456583</v>
+        <v>66.98819812456584</v>
       </c>
       <c r="L44" t="n">
-        <v>83.10478327519765</v>
+        <v>83.10478327519768</v>
       </c>
       <c r="M44" t="n">
-        <v>92.47008397111067</v>
+        <v>92.4700839711107</v>
       </c>
       <c r="N44" t="n">
-        <v>93.96634660425964</v>
+        <v>93.96634660425967</v>
       </c>
       <c r="O44" t="n">
-        <v>88.72975652652096</v>
+        <v>88.72975652652099</v>
       </c>
       <c r="P44" t="n">
-        <v>75.72879435991645</v>
+        <v>75.72879435991646</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.86917076127243</v>
+        <v>56.86917076127244</v>
       </c>
       <c r="R44" t="n">
         <v>33.08037224093047</v>
@@ -34396,10 +34396,10 @@
         <v>12.00038178720002</v>
       </c>
       <c r="T44" t="n">
-        <v>2.305284532022734</v>
+        <v>2.305284532022735</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04212970018545256</v>
+        <v>0.04212970018545257</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2817672106153236</v>
+        <v>0.2817672106153237</v>
       </c>
       <c r="H45" t="n">
-        <v>2.721278060416415</v>
+        <v>2.721278060416416</v>
       </c>
       <c r="I45" t="n">
-        <v>9.701195628641626</v>
+        <v>9.701195628641628</v>
       </c>
       <c r="J45" t="n">
         <v>26.62082229765214</v>
       </c>
       <c r="K45" t="n">
-        <v>45.49922540887882</v>
+        <v>45.49922540887883</v>
       </c>
       <c r="L45" t="n">
-        <v>61.17932351540174</v>
+        <v>61.17932351540176</v>
       </c>
       <c r="M45" t="n">
-        <v>71.39338490020721</v>
+        <v>71.39338490020722</v>
       </c>
       <c r="N45" t="n">
-        <v>73.28295536086875</v>
+        <v>73.28295536086877</v>
       </c>
       <c r="O45" t="n">
-        <v>67.03958716776079</v>
+        <v>67.0395871677608</v>
       </c>
       <c r="P45" t="n">
-        <v>53.80517901653491</v>
+        <v>53.80517901653493</v>
       </c>
       <c r="Q45" t="n">
         <v>35.96733727082623</v>
       </c>
       <c r="R45" t="n">
-        <v>17.49428348013387</v>
+        <v>17.49428348013388</v>
       </c>
       <c r="S45" t="n">
-        <v>5.233702355069714</v>
+        <v>5.233702355069715</v>
       </c>
       <c r="T45" t="n">
-        <v>1.135719590155624</v>
+        <v>1.135719590155625</v>
       </c>
       <c r="U45" t="n">
         <v>0.01853731648785025</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2362241642058292</v>
+        <v>0.2362241642058293</v>
       </c>
       <c r="H46" t="n">
         <v>2.100247569030011</v>
       </c>
       <c r="I46" t="n">
-        <v>7.103904865389849</v>
+        <v>7.10390486538985</v>
       </c>
       <c r="J46" t="n">
         <v>16.70104840935213</v>
       </c>
       <c r="K46" t="n">
-        <v>27.44495289591361</v>
+        <v>27.44495289591362</v>
       </c>
       <c r="L46" t="n">
-        <v>35.1200907402012</v>
+        <v>35.12009074020121</v>
       </c>
       <c r="M46" t="n">
-        <v>37.02921148546466</v>
+        <v>37.02921148546467</v>
       </c>
       <c r="N46" t="n">
-        <v>36.14873960069751</v>
+        <v>36.14873960069752</v>
       </c>
       <c r="O46" t="n">
-        <v>33.38921186429304</v>
+        <v>33.38921186429305</v>
       </c>
       <c r="P46" t="n">
-        <v>28.5702389144941</v>
+        <v>28.57023891449411</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.78055251363539</v>
+        <v>19.7805525136354</v>
       </c>
       <c r="R46" t="n">
         <v>10.62149741965483</v>
       </c>
       <c r="S46" t="n">
-        <v>4.116742934387041</v>
+        <v>4.116742934387042</v>
       </c>
       <c r="T46" t="n">
         <v>1.009321428879452</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.03704337937581</v>
+        <v>41.82844746620138</v>
       </c>
       <c r="K11" t="n">
-        <v>189.5118224297211</v>
+        <v>189.5118224297212</v>
       </c>
       <c r="L11" t="n">
         <v>287.6001918119285</v>
@@ -35419,7 +35419,7 @@
         <v>335.3765814070656</v>
       </c>
       <c r="N11" t="n">
-        <v>322.9208150728712</v>
+        <v>325.129410986047</v>
       </c>
       <c r="O11" t="n">
         <v>260.4161889036316</v>
@@ -35428,7 +35428,7 @@
         <v>184.9472799968706</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.92871341998504</v>
+        <v>60.92871341998506</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>34.08881305167729</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>186.1476689019606</v>
       </c>
       <c r="L12" t="n">
-        <v>311.7627623456219</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>417.1459681262393</v>
       </c>
       <c r="N12" t="n">
-        <v>330.734620842587</v>
+        <v>338.3842275040118</v>
       </c>
       <c r="O12" t="n">
-        <v>337.6250608822261</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P12" t="n">
-        <v>254.3814111730975</v>
+        <v>254.3814111730976</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>117.9654867822383</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.0468615455958</v>
+        <v>50.04686154559579</v>
       </c>
       <c r="K13" t="n">
         <v>134.8552012421029</v>
@@ -35586,7 +35586,7 @@
         <v>156.8769188772006</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.20451070180983</v>
+        <v>62.20451070180982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.03704337937581</v>
+        <v>44.03704337937582</v>
       </c>
       <c r="K14" t="n">
-        <v>189.5118224297211</v>
+        <v>189.5118224297212</v>
       </c>
       <c r="L14" t="n">
         <v>287.6001918119285</v>
@@ -35659,13 +35659,13 @@
         <v>325.129410986047</v>
       </c>
       <c r="O14" t="n">
-        <v>260.4161889036316</v>
+        <v>258.2075929904571</v>
       </c>
       <c r="P14" t="n">
-        <v>182.7386840836946</v>
+        <v>184.9472799968706</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.92871341998504</v>
+        <v>60.92871341998506</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>417.1459681262393</v>
       </c>
       <c r="N15" t="n">
-        <v>425.7350127697027</v>
+        <v>60.71027821006724</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P15" t="n">
-        <v>226.9817374956863</v>
+        <v>254.3814111730976</v>
       </c>
       <c r="Q15" t="n">
         <v>117.9654867822383</v>
@@ -35811,7 +35811,7 @@
         <v>194.7658790332331</v>
       </c>
       <c r="M16" t="n">
-        <v>209.4112775463958</v>
+        <v>209.4112775463959</v>
       </c>
       <c r="N16" t="n">
         <v>212.530417329358</v>
@@ -35823,7 +35823,7 @@
         <v>156.8769188772006</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20451070180983</v>
+        <v>62.20451070180984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>41.8284474661999</v>
+        <v>44.03704337937582</v>
       </c>
       <c r="K17" t="n">
-        <v>189.5118224297211</v>
+        <v>189.5118224297212</v>
       </c>
       <c r="L17" t="n">
         <v>287.6001918119285</v>
@@ -35896,13 +35896,13 @@
         <v>325.129410986047</v>
       </c>
       <c r="O17" t="n">
-        <v>260.4161889036316</v>
+        <v>258.2075929904571</v>
       </c>
       <c r="P17" t="n">
         <v>184.9472799968706</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.92871341998504</v>
+        <v>60.92871341998506</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.08881305167729</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>186.1476689019606</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>311.7627623456219</v>
@@ -35972,13 +35972,13 @@
         <v>417.1459681262393</v>
       </c>
       <c r="N18" t="n">
-        <v>26.62146515838817</v>
+        <v>246.8579471120278</v>
       </c>
       <c r="O18" t="n">
-        <v>337.6250608822261</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P18" t="n">
-        <v>254.3814111730975</v>
+        <v>254.3814111730976</v>
       </c>
       <c r="Q18" t="n">
         <v>117.9654867822383</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.67054317808026</v>
+        <v>12.67054317808027</v>
       </c>
       <c r="L19" t="n">
-        <v>72.58122096921048</v>
+        <v>72.58122096921049</v>
       </c>
       <c r="M19" t="n">
-        <v>87.22661948237322</v>
+        <v>87.22661948237324</v>
       </c>
       <c r="N19" t="n">
         <v>90.3457592653354</v>
       </c>
       <c r="O19" t="n">
-        <v>67.95741989426409</v>
+        <v>67.95741989426411</v>
       </c>
       <c r="P19" t="n">
-        <v>34.69226081317794</v>
+        <v>34.69226081317795</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.03704337937581</v>
+        <v>44.03704337937582</v>
       </c>
       <c r="K20" t="n">
-        <v>189.5118224297211</v>
+        <v>187.3032265165467</v>
       </c>
       <c r="L20" t="n">
         <v>287.6001918119285</v>
@@ -36139,7 +36139,7 @@
         <v>184.9472799968706</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.72011750680996</v>
+        <v>60.92871341998506</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>186.1476689019606</v>
       </c>
       <c r="L21" t="n">
-        <v>284.9961126896438</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>417.1459681262393</v>
       </c>
       <c r="N21" t="n">
-        <v>425.735012769703</v>
+        <v>338.3842275040118</v>
       </c>
       <c r="O21" t="n">
-        <v>337.6250608822261</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>254.3814111730976</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>117.9654867822383</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.67054317808026</v>
+        <v>12.67054317808027</v>
       </c>
       <c r="L22" t="n">
-        <v>72.58122096921048</v>
+        <v>72.58122096921049</v>
       </c>
       <c r="M22" t="n">
-        <v>87.22661948237322</v>
+        <v>87.22661948237324</v>
       </c>
       <c r="N22" t="n">
         <v>90.3457592653354</v>
       </c>
       <c r="O22" t="n">
-        <v>67.95741989426409</v>
+        <v>67.95741989426411</v>
       </c>
       <c r="P22" t="n">
-        <v>34.69226081317794</v>
+        <v>34.69226081317795</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>44.03704337937581</v>
+        <v>44.03704337937582</v>
       </c>
       <c r="K23" t="n">
-        <v>189.5118224297211</v>
+        <v>189.5118224297212</v>
       </c>
       <c r="L23" t="n">
         <v>287.6001918119285</v>
@@ -36376,7 +36376,7 @@
         <v>184.9472799968706</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.92871341998504</v>
+        <v>60.92871341998506</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.08881305167729</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>186.1476689019606</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>311.7627623456219</v>
       </c>
       <c r="M24" t="n">
-        <v>274.0646444496563</v>
+        <v>417.1459681262393</v>
       </c>
       <c r="N24" t="n">
-        <v>426.2927959212446</v>
+        <v>426.2927959212447</v>
       </c>
       <c r="O24" t="n">
-        <v>337.6250608822261</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>195.1206450592933</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.9654867822383</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.67054317808026</v>
+        <v>12.67054317808027</v>
       </c>
       <c r="L25" t="n">
-        <v>72.58122096921048</v>
+        <v>72.58122096921049</v>
       </c>
       <c r="M25" t="n">
-        <v>87.22661948237322</v>
+        <v>87.22661948237324</v>
       </c>
       <c r="N25" t="n">
         <v>90.3457592653354</v>
       </c>
       <c r="O25" t="n">
-        <v>67.95741989426409</v>
+        <v>67.95741989426411</v>
       </c>
       <c r="P25" t="n">
-        <v>34.69226081317794</v>
+        <v>34.69226081317795</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.1198173008254</v>
+        <v>186.1198173008252</v>
       </c>
       <c r="K26" t="n">
-        <v>331.5945963511708</v>
+        <v>331.5945963511707</v>
       </c>
       <c r="L26" t="n">
-        <v>429.6829657333781</v>
+        <v>429.682965733378</v>
       </c>
       <c r="M26" t="n">
-        <v>477.4593553285152</v>
+        <v>477.4593553285151</v>
       </c>
       <c r="N26" t="n">
-        <v>467.2121849074966</v>
+        <v>467.2121849074965</v>
       </c>
       <c r="O26" t="n">
-        <v>402.4989628250812</v>
+        <v>402.4989628250811</v>
       </c>
       <c r="P26" t="n">
-        <v>327.0300539183202</v>
+        <v>327.0300539183201</v>
       </c>
       <c r="Q26" t="n">
         <v>203.0114873414346</v>
       </c>
       <c r="R26" t="n">
-        <v>33.31232346150298</v>
+        <v>33.3123234615029</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>443.7408553969144</v>
       </c>
       <c r="O27" t="n">
-        <v>337.6250608822261</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P27" t="n">
-        <v>254.3814111730975</v>
+        <v>254.3814111730976</v>
       </c>
       <c r="Q27" t="n">
         <v>117.9654867822383</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.94497740302269</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7533170995299</v>
+        <v>37.00251330174414</v>
       </c>
       <c r="L28" t="n">
-        <v>214.6639948906601</v>
+        <v>72.58122096921049</v>
       </c>
       <c r="M28" t="n">
-        <v>87.22661948237322</v>
+        <v>87.22661948237324</v>
       </c>
       <c r="N28" t="n">
-        <v>90.3457592653354</v>
+        <v>232.4285331867849</v>
       </c>
       <c r="O28" t="n">
-        <v>162.2343674209489</v>
+        <v>210.0401938157136</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7750347346275</v>
+        <v>176.7750347346274</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.1198173008249</v>
+        <v>186.1198173008254</v>
       </c>
       <c r="K29" t="n">
         <v>331.5945963511707</v>
@@ -36844,7 +36844,7 @@
         <v>467.2121849074965</v>
       </c>
       <c r="O29" t="n">
-        <v>402.4989628250811</v>
+        <v>402.4989628250812</v>
       </c>
       <c r="P29" t="n">
         <v>327.0300539183202</v>
@@ -36853,7 +36853,7 @@
         <v>203.0114873414346</v>
       </c>
       <c r="R29" t="n">
-        <v>33.31232346150295</v>
+        <v>33.31232346150296</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>443.7408553969144</v>
       </c>
       <c r="O30" t="n">
-        <v>337.6250608822261</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P30" t="n">
-        <v>254.3814111730975</v>
+        <v>254.3814111730976</v>
       </c>
       <c r="Q30" t="n">
         <v>117.9654867822383</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7533170995298</v>
+        <v>12.67054317808027</v>
       </c>
       <c r="L31" t="n">
         <v>214.66399489066</v>
       </c>
       <c r="M31" t="n">
-        <v>87.22661948237322</v>
+        <v>229.3093934038228</v>
       </c>
       <c r="N31" t="n">
-        <v>102.5200802327841</v>
+        <v>232.428533186785</v>
       </c>
       <c r="O31" t="n">
-        <v>67.95741989426409</v>
+        <v>67.95741989426411</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7750347346275</v>
+        <v>46.86658178062648</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.10262655923677</v>
+        <v>82.10262655923678</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>186.1198173008254</v>
       </c>
       <c r="K32" t="n">
-        <v>331.5945963511707</v>
+        <v>331.5945963511708</v>
       </c>
       <c r="L32" t="n">
         <v>429.6829657333781</v>
@@ -37078,10 +37078,10 @@
         <v>477.4593553285152</v>
       </c>
       <c r="N32" t="n">
-        <v>467.2121849074965</v>
+        <v>467.2121849074966</v>
       </c>
       <c r="O32" t="n">
-        <v>402.4989628250811</v>
+        <v>402.4989628250812</v>
       </c>
       <c r="P32" t="n">
         <v>327.0300539183202</v>
@@ -37090,7 +37090,7 @@
         <v>203.0114873414346</v>
       </c>
       <c r="R32" t="n">
-        <v>33.31232346150296</v>
+        <v>33.31232346150298</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>443.7408553969144</v>
       </c>
       <c r="O33" t="n">
-        <v>337.6250608822261</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P33" t="n">
-        <v>254.3814111730975</v>
+        <v>254.3814111730976</v>
       </c>
       <c r="Q33" t="n">
         <v>117.9654867822383</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>69.94497740302278</v>
       </c>
       <c r="K34" t="n">
-        <v>12.67054317808026</v>
+        <v>12.67054317808027</v>
       </c>
       <c r="L34" t="n">
-        <v>214.66399489066</v>
+        <v>72.58122096921049</v>
       </c>
       <c r="M34" t="n">
-        <v>181.5035670090585</v>
+        <v>229.3093934038228</v>
       </c>
       <c r="N34" t="n">
         <v>232.428533186785</v>
       </c>
       <c r="O34" t="n">
-        <v>67.95741989426409</v>
+        <v>152.269537380139</v>
       </c>
       <c r="P34" t="n">
-        <v>176.7750347346275</v>
+        <v>34.69226081317795</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.10262655923681</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>44.03704337937581</v>
+        <v>44.03704337937582</v>
       </c>
       <c r="K35" t="n">
-        <v>189.5118224297211</v>
+        <v>189.5118224297212</v>
       </c>
       <c r="L35" t="n">
         <v>287.6001918119285</v>
@@ -37324,7 +37324,7 @@
         <v>184.9472799968706</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.92871341998504</v>
+        <v>60.92871341998506</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>34.08881305167729</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>186.1476689019606</v>
       </c>
       <c r="L36" t="n">
-        <v>252.5019962318176</v>
+        <v>311.7627623456219</v>
       </c>
       <c r="M36" t="n">
         <v>417.1459681262393</v>
       </c>
       <c r="N36" t="n">
-        <v>426.2927959212446</v>
+        <v>28.83006107156418</v>
       </c>
       <c r="O36" t="n">
-        <v>337.6250608822261</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P36" t="n">
-        <v>254.3814111730975</v>
+        <v>254.3814111730976</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>117.9654867822383</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.67054317808026</v>
+        <v>12.67054317808027</v>
       </c>
       <c r="L37" t="n">
-        <v>72.58122096921048</v>
+        <v>72.58122096921049</v>
       </c>
       <c r="M37" t="n">
-        <v>87.22661948237322</v>
+        <v>87.22661948237324</v>
       </c>
       <c r="N37" t="n">
         <v>90.3457592653354</v>
       </c>
       <c r="O37" t="n">
-        <v>67.95741989426409</v>
+        <v>67.95741989426411</v>
       </c>
       <c r="P37" t="n">
-        <v>34.69226081317794</v>
+        <v>34.69226081317795</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.03704337937581</v>
+        <v>44.03704337937582</v>
       </c>
       <c r="K38" t="n">
-        <v>189.5118224297211</v>
+        <v>189.5118224297212</v>
       </c>
       <c r="L38" t="n">
         <v>287.6001918119285</v>
@@ -37561,7 +37561,7 @@
         <v>184.9472799968706</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.92871341998504</v>
+        <v>60.92871341998506</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>311.7627623456219</v>
       </c>
       <c r="M39" t="n">
-        <v>274.0646444496563</v>
+        <v>19.68323327655882</v>
       </c>
       <c r="N39" t="n">
         <v>426.2927959212446</v>
       </c>
       <c r="O39" t="n">
-        <v>337.6250608822261</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>254.3814111730976</v>
       </c>
       <c r="Q39" t="n">
         <v>117.9654867822383</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.67054317808026</v>
+        <v>12.67054317808027</v>
       </c>
       <c r="L40" t="n">
-        <v>72.58122096921048</v>
+        <v>72.58122096921049</v>
       </c>
       <c r="M40" t="n">
-        <v>87.22661948237322</v>
+        <v>87.22661948237324</v>
       </c>
       <c r="N40" t="n">
         <v>90.3457592653354</v>
       </c>
       <c r="O40" t="n">
-        <v>67.95741989426409</v>
+        <v>67.95741989426411</v>
       </c>
       <c r="P40" t="n">
-        <v>34.69226081317794</v>
+        <v>34.69226081317795</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>31.19017875525716</v>
       </c>
       <c r="J41" t="n">
-        <v>44.03704337937581</v>
+        <v>44.03704337937582</v>
       </c>
       <c r="K41" t="n">
-        <v>189.5118224297211</v>
+        <v>189.5118224297212</v>
       </c>
       <c r="L41" t="n">
         <v>287.6001918119285</v>
@@ -37795,10 +37795,10 @@
         <v>260.4161889036316</v>
       </c>
       <c r="P41" t="n">
-        <v>216.1374587521281</v>
+        <v>184.9472799968706</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.92871341998504</v>
+        <v>60.92871341998506</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>34.08881305167729</v>
       </c>
       <c r="K42" t="n">
         <v>186.1476689019606</v>
       </c>
       <c r="L42" t="n">
-        <v>89.66739461376122</v>
+        <v>55.57858156208393</v>
       </c>
       <c r="M42" t="n">
         <v>417.1459681262393</v>
@@ -37871,10 +37871,10 @@
         <v>434.1699073925979</v>
       </c>
       <c r="O42" t="n">
-        <v>337.6250608822261</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P42" t="n">
-        <v>254.3814111730975</v>
+        <v>254.3814111730976</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.67054317808026</v>
+        <v>12.67054317808027</v>
       </c>
       <c r="L43" t="n">
-        <v>72.58122096921048</v>
+        <v>72.58122096921049</v>
       </c>
       <c r="M43" t="n">
-        <v>87.22661948237322</v>
+        <v>87.22661948237324</v>
       </c>
       <c r="N43" t="n">
         <v>90.3457592653354</v>
       </c>
       <c r="O43" t="n">
-        <v>67.95741989426409</v>
+        <v>67.95741989426411</v>
       </c>
       <c r="P43" t="n">
-        <v>34.69226081317794</v>
+        <v>34.69226081317795</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,16 +38011,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>31.19017875525716</v>
       </c>
       <c r="J44" t="n">
-        <v>44.03704337937581</v>
+        <v>44.03704337937582</v>
       </c>
       <c r="K44" t="n">
-        <v>189.5118224297211</v>
+        <v>189.5118224297212</v>
       </c>
       <c r="L44" t="n">
-        <v>291.9951078391264</v>
+        <v>287.6001918119285</v>
       </c>
       <c r="M44" t="n">
         <v>335.3765814070656</v>
@@ -38035,13 +38035,13 @@
         <v>184.9472799968706</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.92871341998504</v>
+        <v>60.92871341998506</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>26.79526272805843</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>186.1476689019606</v>
       </c>
       <c r="L45" t="n">
-        <v>311.7627623456219</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>417.1459681262393</v>
       </c>
       <c r="N45" t="n">
-        <v>60.02023982682038</v>
+        <v>434.1699073925979</v>
       </c>
       <c r="O45" t="n">
-        <v>337.6250608822261</v>
+        <v>337.6250608822262</v>
       </c>
       <c r="P45" t="n">
-        <v>254.3814111730975</v>
+        <v>191.9945059529431</v>
       </c>
       <c r="Q45" t="n">
         <v>117.9654867822383</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.67054317808026</v>
+        <v>12.67054317808027</v>
       </c>
       <c r="L46" t="n">
-        <v>72.58122096921048</v>
+        <v>72.58122096921049</v>
       </c>
       <c r="M46" t="n">
-        <v>87.22661948237322</v>
+        <v>87.22661948237324</v>
       </c>
       <c r="N46" t="n">
         <v>90.3457592653354</v>
       </c>
       <c r="O46" t="n">
-        <v>67.95741989426409</v>
+        <v>67.95741989426411</v>
       </c>
       <c r="P46" t="n">
-        <v>34.69226081317794</v>
+        <v>34.69226081317795</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
